--- a/Src/Data_files/test.xlsx
+++ b/Src/Data_files/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="115">
   <si>
     <t>№ квартири</t>
   </si>
@@ -348,6 +348,18 @@
   </si>
   <si>
     <t>показники   на 01.12</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>lO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 2</t>
+  </si>
+  <si>
+    <t>3 1</t>
   </si>
 </sst>
 </file>
@@ -1140,11 +1152,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S130"/>
+  <dimension ref="A1:S137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B129" sqref="B129:I130"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5637,7 +5649,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="2:6">
+    <row r="129" spans="1:19">
       <c r="B129" s="72" t="s">
         <v>105</v>
       </c>
@@ -5646,9 +5658,299 @@
       <c r="E129" s="71"/>
       <c r="F129" s="71"/>
     </row>
-    <row r="130" spans="2:6">
+    <row r="130" spans="1:19">
       <c r="B130" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="132" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A132" s="13">
+        <v>7</v>
+      </c>
+      <c r="B132" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="36">
+        <v>4</v>
+      </c>
+      <c r="D132" s="37">
+        <v>2</v>
+      </c>
+      <c r="E132" s="38"/>
+      <c r="G132" s="5">
+        <v>25482311</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J132" s="8">
+        <v>9</v>
+      </c>
+      <c r="K132" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L132" s="59">
+        <v>1665</v>
+      </c>
+      <c r="M132" s="59">
+        <v>1.665</v>
+      </c>
+      <c r="N132" s="59">
+        <v>1.28</v>
+      </c>
+      <c r="O132" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="P132" s="61">
+        <v>1.9180800000000002</v>
+      </c>
+      <c r="R132">
+        <v>217</v>
+      </c>
+      <c r="S132">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A133" s="13">
+        <v>7</v>
+      </c>
+      <c r="B133" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="36">
+        <v>4</v>
+      </c>
+      <c r="D133" s="37">
+        <v>2</v>
+      </c>
+      <c r="E133" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F133" t="s">
+        <v>111</v>
+      </c>
+      <c r="G133" s="5">
+        <v>25482311</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J133" s="8">
+        <v>9</v>
+      </c>
+      <c r="K133" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L133" s="59">
+        <v>1665</v>
+      </c>
+      <c r="M133" s="59">
+        <v>1.665</v>
+      </c>
+      <c r="N133" s="59">
+        <v>1.28</v>
+      </c>
+      <c r="O133" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="P133" s="61">
+        <v>1.9180800000000002</v>
+      </c>
+      <c r="R133">
+        <v>217</v>
+      </c>
+      <c r="S133">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" s="13">
+        <v>7</v>
+      </c>
+      <c r="B134" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="36">
+        <v>4</v>
+      </c>
+      <c r="D134" s="37">
+        <v>2</v>
+      </c>
+      <c r="E134" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F134" t="s">
+        <v>114</v>
+      </c>
+      <c r="G134" s="5">
+        <v>25482311</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J134" s="8">
+        <v>9</v>
+      </c>
+      <c r="K134" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L134" s="59">
+        <v>1665</v>
+      </c>
+      <c r="M134" s="59">
+        <v>1.665</v>
+      </c>
+      <c r="N134" s="59">
+        <v>1.28</v>
+      </c>
+      <c r="O134" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="P134" s="61">
+        <v>1.9180800000000002</v>
+      </c>
+      <c r="R134">
+        <v>217</v>
+      </c>
+      <c r="S134">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A135" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B135" s="31"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="4">
+        <v>25482313</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9">
+        <v>8</v>
+      </c>
+      <c r="K135" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L135" s="59">
+        <v>1480</v>
+      </c>
+      <c r="M135" s="59">
+        <v>1.48</v>
+      </c>
+      <c r="N135" s="59">
+        <v>1.28</v>
+      </c>
+      <c r="O135" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="P135" s="61">
+        <v>1.70496</v>
+      </c>
+      <c r="R135">
+        <v>344</v>
+      </c>
+      <c r="S135">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
+      <c r="B136" s="31"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="3">
+        <v>25482312</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7">
+        <v>11</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L136" s="59">
+        <v>2035</v>
+      </c>
+      <c r="M136" s="59">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="N136" s="59">
+        <v>1.28</v>
+      </c>
+      <c r="O136" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="P136" s="61">
+        <v>2.3443200000000006</v>
+      </c>
+      <c r="R136">
+        <v>182</v>
+      </c>
+      <c r="S136">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="15.75" thickBot="1">
+      <c r="B137" s="31"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="4">
+        <v>25482313</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9">
+        <v>8</v>
+      </c>
+      <c r="K137" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L137" s="59">
+        <v>1480</v>
+      </c>
+      <c r="M137" s="59">
+        <v>1.48</v>
+      </c>
+      <c r="N137" s="59">
+        <v>1.28</v>
+      </c>
+      <c r="O137" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="P137" s="61">
+        <v>1.70496</v>
+      </c>
+      <c r="R137">
+        <v>344</v>
+      </c>
+      <c r="S137">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Src/Data_files/test.xlsx
+++ b/Src/Data_files/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="125">
   <si>
     <t>№ квартири</t>
   </si>
@@ -360,6 +360,36 @@
   </si>
   <si>
     <t>3 1</t>
+  </si>
+  <si>
+    <t>по будинку за т/ліч</t>
+  </si>
+  <si>
+    <t>балкон</t>
+  </si>
+  <si>
+    <t>стал</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>60х50х11</t>
+  </si>
+  <si>
+    <t>ванна</t>
+  </si>
+  <si>
+    <t>регіст</t>
+  </si>
+  <si>
+    <t>110х55х15</t>
+  </si>
+  <si>
+    <t>спальня 3</t>
+  </si>
+  <si>
+    <t>120х30х11</t>
   </si>
 </sst>
 </file>
@@ -371,7 +401,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +449,20 @@
     <font>
       <sz val="11"/>
       <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -474,7 +518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -694,11 +738,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -876,6 +972,23 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,11 +1265,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S137"/>
+  <dimension ref="A1:AP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R110" sqref="R110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1463,11 +1576,11 @@
       <c r="P8" s="61">
         <v>1.9180800000000002</v>
       </c>
-      <c r="R8">
-        <v>217</v>
-      </c>
-      <c r="S8">
-        <v>146</v>
+      <c r="R8" s="80">
+        <v>653</v>
+      </c>
+      <c r="S8" s="80">
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1504,11 +1617,11 @@
       <c r="P9" s="61">
         <v>2.3443200000000006</v>
       </c>
-      <c r="R9">
-        <v>182</v>
-      </c>
-      <c r="S9">
-        <v>120</v>
+      <c r="R9" s="75">
+        <v>552</v>
+      </c>
+      <c r="S9" s="75">
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1">
@@ -1545,11 +1658,11 @@
       <c r="P10" s="61">
         <v>1.70496</v>
       </c>
-      <c r="R10">
-        <v>344</v>
-      </c>
-      <c r="S10">
-        <v>235</v>
+      <c r="R10" s="81">
+        <v>988</v>
+      </c>
+      <c r="S10" s="81">
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1">
@@ -1581,6 +1694,8 @@
       <c r="N11" s="59"/>
       <c r="O11" s="59"/>
       <c r="P11" s="61"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="13">
@@ -1631,11 +1746,11 @@
       <c r="P12" s="61">
         <v>1.6823700000000001</v>
       </c>
-      <c r="R12">
-        <v>247</v>
-      </c>
-      <c r="S12">
-        <v>190</v>
+      <c r="R12" s="80">
+        <v>683</v>
+      </c>
+      <c r="S12" s="80">
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1672,11 +1787,11 @@
       <c r="P13" s="61">
         <v>2.2431600000000005</v>
       </c>
-      <c r="R13">
-        <v>166</v>
-      </c>
-      <c r="S13">
-        <v>130</v>
+      <c r="R13" s="75">
+        <v>510</v>
+      </c>
+      <c r="S13" s="75">
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1713,11 +1828,11 @@
       <c r="P14" s="61">
         <v>2.0562300000000002</v>
       </c>
-      <c r="R14">
-        <v>193</v>
-      </c>
-      <c r="S14">
-        <v>131</v>
+      <c r="R14" s="75">
+        <v>564</v>
+      </c>
+      <c r="S14" s="75">
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1">
@@ -1754,11 +1869,11 @@
       <c r="P15" s="61">
         <v>0.74772000000000005</v>
       </c>
-      <c r="R15">
-        <v>150</v>
-      </c>
-      <c r="S15">
-        <v>150</v>
+      <c r="R15" s="81">
+        <v>287</v>
+      </c>
+      <c r="S15" s="81">
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1810,11 +1925,11 @@
       <c r="P16" s="61">
         <v>1.6823700000000001</v>
       </c>
-      <c r="R16">
-        <v>317</v>
-      </c>
-      <c r="S16">
-        <v>211</v>
+      <c r="R16" s="80">
+        <v>934</v>
+      </c>
+      <c r="S16" s="80">
+        <v>883</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1851,11 +1966,11 @@
       <c r="P17" s="61">
         <v>0.56079000000000012</v>
       </c>
-      <c r="R17">
-        <v>270</v>
-      </c>
-      <c r="S17">
-        <v>184</v>
+      <c r="R17" s="75">
+        <v>757</v>
+      </c>
+      <c r="S17" s="75">
+        <v>725</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1892,11 +2007,11 @@
       <c r="P18" s="61">
         <v>1.1215800000000002</v>
       </c>
-      <c r="R18">
-        <v>246</v>
-      </c>
-      <c r="S18">
-        <v>166</v>
+      <c r="R18" s="75">
+        <v>724</v>
+      </c>
+      <c r="S18" s="75">
+        <v>688</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1">
@@ -1933,11 +2048,11 @@
       <c r="P19" s="61">
         <v>0.56079000000000012</v>
       </c>
-      <c r="R19">
-        <v>243</v>
-      </c>
-      <c r="S19">
-        <v>166</v>
+      <c r="R19" s="81">
+        <v>660</v>
+      </c>
+      <c r="S19" s="81">
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1989,11 +2104,11 @@
       <c r="P20" s="61">
         <v>0.56079000000000012</v>
       </c>
-      <c r="R20">
-        <v>327</v>
-      </c>
-      <c r="S20">
-        <v>302</v>
+      <c r="R20" s="80">
+        <v>481</v>
+      </c>
+      <c r="S20" s="80">
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2030,11 +2145,11 @@
       <c r="P21" s="61">
         <v>1.1215800000000002</v>
       </c>
-      <c r="R21">
-        <v>233</v>
-      </c>
-      <c r="S21">
-        <v>213</v>
+      <c r="R21" s="75">
+        <v>267</v>
+      </c>
+      <c r="S21" s="75">
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2071,11 +2186,11 @@
       <c r="P22" s="61">
         <v>1.3085100000000001</v>
       </c>
-      <c r="R22">
-        <v>231</v>
-      </c>
-      <c r="S22">
-        <v>203</v>
+      <c r="R22" s="75">
+        <v>354</v>
+      </c>
+      <c r="S22" s="75">
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" thickBot="1">
@@ -2112,11 +2227,11 @@
       <c r="P23" s="61">
         <v>1.8693000000000004</v>
       </c>
-      <c r="R23">
-        <v>67</v>
-      </c>
-      <c r="S23">
-        <v>61</v>
+      <c r="R23" s="81">
+        <v>331</v>
+      </c>
+      <c r="S23" s="81">
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1">
@@ -2148,6 +2263,8 @@
       <c r="N24" s="59"/>
       <c r="O24" s="59"/>
       <c r="P24" s="61"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" thickBot="1">
       <c r="A25" s="13">
@@ -2178,6 +2295,8 @@
       <c r="N25" s="59"/>
       <c r="O25" s="59"/>
       <c r="P25" s="61"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="13">
@@ -2228,11 +2347,11 @@
       <c r="P26" s="61">
         <v>1.6823700000000001</v>
       </c>
-      <c r="R26">
-        <v>151</v>
-      </c>
-      <c r="S26">
-        <v>114</v>
+      <c r="R26" s="80">
+        <v>662</v>
+      </c>
+      <c r="S26" s="80">
+        <v>642</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2271,11 +2390,11 @@
       <c r="P27" s="61">
         <v>1.6823700000000001</v>
       </c>
-      <c r="R27">
-        <v>120</v>
-      </c>
-      <c r="S27">
-        <v>82</v>
+      <c r="R27" s="75">
+        <v>472</v>
+      </c>
+      <c r="S27" s="75">
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1">
@@ -2314,11 +2433,11 @@
       <c r="P28" s="61">
         <v>1.70496</v>
       </c>
-      <c r="R28">
-        <v>162</v>
-      </c>
-      <c r="S28">
-        <v>147</v>
+      <c r="R28" s="81">
+        <v>709</v>
+      </c>
+      <c r="S28" s="81">
+        <v>667</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2370,11 +2489,11 @@
       <c r="P29" s="61">
         <v>1.8693000000000004</v>
       </c>
-      <c r="R29">
-        <v>107</v>
-      </c>
-      <c r="S29">
-        <v>84</v>
+      <c r="R29" s="80">
+        <v>408</v>
+      </c>
+      <c r="S29" s="80">
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2411,11 +2530,11 @@
       <c r="P30" s="61">
         <v>1.1215800000000002</v>
       </c>
-      <c r="R30">
-        <v>100</v>
-      </c>
-      <c r="S30">
-        <v>76</v>
+      <c r="R30" s="75">
+        <v>572</v>
+      </c>
+      <c r="S30" s="75">
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2452,11 +2571,11 @@
       <c r="P31" s="61">
         <v>1.1215800000000002</v>
       </c>
-      <c r="R31">
-        <v>98</v>
-      </c>
-      <c r="S31">
-        <v>85</v>
+      <c r="R31" s="75">
+        <v>445</v>
+      </c>
+      <c r="S31" s="75">
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1">
@@ -2493,11 +2612,11 @@
       <c r="P32" s="61">
         <v>1.1215800000000002</v>
       </c>
-      <c r="R32">
-        <v>69</v>
-      </c>
-      <c r="S32">
-        <v>69</v>
+      <c r="R32" s="81">
+        <v>530</v>
+      </c>
+      <c r="S32" s="81">
+        <v>520</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2549,11 +2668,11 @@
       <c r="P33" s="61">
         <v>2.5574400000000002</v>
       </c>
-      <c r="R33">
-        <v>287</v>
-      </c>
-      <c r="S33">
-        <v>203</v>
+      <c r="R33" s="80">
+        <v>412</v>
+      </c>
+      <c r="S33" s="80">
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2590,11 +2709,11 @@
       <c r="P34" s="61">
         <v>2.5574400000000002</v>
       </c>
-      <c r="R34">
-        <v>235</v>
-      </c>
-      <c r="S34">
-        <v>172</v>
+      <c r="R34" s="75">
+        <v>342</v>
+      </c>
+      <c r="S34" s="75">
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -2631,11 +2750,11 @@
       <c r="P35" s="61">
         <v>3.1968000000000001</v>
       </c>
-      <c r="R35">
-        <v>241</v>
-      </c>
-      <c r="S35">
-        <v>167</v>
+      <c r="R35" s="75">
+        <v>312</v>
+      </c>
+      <c r="S35" s="75">
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15.75" thickBot="1">
@@ -2672,11 +2791,11 @@
       <c r="P36" s="61">
         <v>2.5574400000000002</v>
       </c>
-      <c r="R36">
-        <v>290</v>
-      </c>
-      <c r="S36">
-        <v>190</v>
+      <c r="R36" s="81">
+        <v>196</v>
+      </c>
+      <c r="S36" s="81">
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -2728,11 +2847,11 @@
       <c r="P37" s="61">
         <v>1.4954400000000001</v>
       </c>
-      <c r="R37">
-        <v>362</v>
-      </c>
-      <c r="S37">
-        <v>212</v>
+      <c r="R37" s="80">
+        <v>821</v>
+      </c>
+      <c r="S37" s="80">
+        <v>768</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -2769,11 +2888,11 @@
       <c r="P38" s="61">
         <v>1.6823700000000001</v>
       </c>
-      <c r="R38">
-        <v>241</v>
-      </c>
-      <c r="S38">
-        <v>151</v>
+      <c r="R38" s="75">
+        <v>678</v>
+      </c>
+      <c r="S38" s="75">
+        <v>630</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -2810,11 +2929,11 @@
       <c r="P39" s="61">
         <v>1.6823700000000001</v>
       </c>
-      <c r="R39">
-        <v>225</v>
-      </c>
-      <c r="S39">
-        <v>155</v>
+      <c r="R39" s="75">
+        <v>612</v>
+      </c>
+      <c r="S39" s="75">
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.75" thickBot="1">
@@ -2851,11 +2970,11 @@
       <c r="P40" s="61">
         <v>0.9346500000000002</v>
       </c>
-      <c r="R40">
-        <v>348</v>
-      </c>
-      <c r="S40">
-        <v>192</v>
+      <c r="R40" s="81">
+        <v>821</v>
+      </c>
+      <c r="S40" s="81">
+        <v>773</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -2907,11 +3026,11 @@
       <c r="P41" s="61">
         <v>1.0656000000000001</v>
       </c>
-      <c r="R41">
-        <v>350</v>
-      </c>
-      <c r="S41">
-        <v>224</v>
+      <c r="R41" s="80">
+        <v>1222</v>
+      </c>
+      <c r="S41" s="80">
+        <v>1155</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -2948,11 +3067,11 @@
       <c r="P42" s="61">
         <v>1.0656000000000001</v>
       </c>
-      <c r="R42">
-        <v>259</v>
-      </c>
-      <c r="S42">
-        <v>163</v>
+      <c r="R42" s="75">
+        <v>833</v>
+      </c>
+      <c r="S42" s="75">
+        <v>797</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -2989,11 +3108,11 @@
       <c r="P43" s="61">
         <v>1.2441600000000002</v>
       </c>
-      <c r="R43">
-        <v>272</v>
-      </c>
-      <c r="S43">
-        <v>175</v>
+      <c r="R43" s="75">
+        <v>752</v>
+      </c>
+      <c r="S43" s="75">
+        <v>717</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1">
@@ -3030,11 +3149,11 @@
       <c r="P44" s="61">
         <v>1.0368000000000002</v>
       </c>
-      <c r="R44">
-        <v>265</v>
-      </c>
-      <c r="S44">
-        <v>155</v>
+      <c r="R44" s="81">
+        <v>855</v>
+      </c>
+      <c r="S44" s="81">
+        <v>811</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="15.75" thickBot="1">
@@ -3066,6 +3185,8 @@
       <c r="N45" s="59"/>
       <c r="O45" s="59"/>
       <c r="P45" s="61"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="13">
@@ -3116,11 +3237,11 @@
       <c r="P46" s="61">
         <v>2.1312000000000002</v>
       </c>
-      <c r="R46">
-        <v>65</v>
-      </c>
-      <c r="S46">
-        <v>63</v>
+      <c r="R46" s="80">
+        <v>1021</v>
+      </c>
+      <c r="S46" s="80">
+        <v>972</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3157,11 +3278,11 @@
       <c r="P47" s="61">
         <v>2.1312000000000002</v>
       </c>
-      <c r="R47">
-        <v>35</v>
-      </c>
-      <c r="S47">
-        <v>9</v>
+      <c r="R47" s="75">
+        <v>814</v>
+      </c>
+      <c r="S47" s="75">
+        <v>775</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3198,11 +3319,11 @@
       <c r="P48" s="61">
         <v>2.1312000000000002</v>
       </c>
-      <c r="R48">
-        <v>133</v>
-      </c>
-      <c r="S48">
-        <v>133</v>
+      <c r="R48" s="75">
+        <v>876</v>
+      </c>
+      <c r="S48" s="75">
+        <v>829</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="15.75" thickBot="1">
@@ -3239,11 +3360,11 @@
       <c r="P49" s="61">
         <v>1.4918400000000001</v>
       </c>
-      <c r="R49">
-        <v>117</v>
-      </c>
-      <c r="S49">
-        <v>109</v>
+      <c r="R49" s="81">
+        <v>872</v>
+      </c>
+      <c r="S49" s="81">
+        <v>820</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -3295,11 +3416,11 @@
       <c r="P50" s="61">
         <v>1.70496</v>
       </c>
-      <c r="R50">
-        <v>295</v>
-      </c>
-      <c r="S50">
-        <v>216</v>
+      <c r="R50" s="80">
+        <v>235</v>
+      </c>
+      <c r="S50" s="80">
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -3336,11 +3457,11 @@
       <c r="P51" s="61">
         <v>2.3443200000000006</v>
       </c>
-      <c r="R51">
-        <v>184</v>
-      </c>
-      <c r="S51">
-        <v>184</v>
+      <c r="R51" s="75">
+        <v>265</v>
+      </c>
+      <c r="S51" s="75">
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -3377,11 +3498,11 @@
       <c r="P52" s="61">
         <v>1.70496</v>
       </c>
-      <c r="R52">
-        <v>301</v>
-      </c>
-      <c r="S52">
-        <v>217</v>
+      <c r="R52" s="75">
+        <v>190</v>
+      </c>
+      <c r="S52" s="75">
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="15.75" thickBot="1">
@@ -3418,11 +3539,11 @@
       <c r="P53" s="61">
         <v>2.7705599999999997</v>
       </c>
-      <c r="R53">
-        <v>263</v>
-      </c>
-      <c r="S53">
-        <v>171</v>
+      <c r="R53" s="81">
+        <v>189</v>
+      </c>
+      <c r="S53" s="81">
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -3474,11 +3595,11 @@
       <c r="P54" s="61">
         <v>2.1312000000000002</v>
       </c>
-      <c r="R54">
-        <v>385</v>
-      </c>
-      <c r="S54">
-        <v>267</v>
+      <c r="R54" s="80">
+        <v>699</v>
+      </c>
+      <c r="S54" s="80">
+        <v>696</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -3515,11 +3636,11 @@
       <c r="P55" s="61">
         <v>1.4918400000000001</v>
       </c>
-      <c r="R55">
-        <v>362</v>
-      </c>
-      <c r="S55">
-        <v>258</v>
+      <c r="R55" s="75">
+        <v>449</v>
+      </c>
+      <c r="S55" s="75">
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="15.75" thickBot="1">
@@ -3556,11 +3677,11 @@
       <c r="P56" s="61">
         <v>0.85248000000000002</v>
       </c>
-      <c r="R56">
-        <v>155</v>
-      </c>
-      <c r="S56">
-        <v>150</v>
+      <c r="R56" s="81">
+        <v>689</v>
+      </c>
+      <c r="S56" s="81">
+        <v>684</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -3612,11 +3733,11 @@
       <c r="P57" s="61">
         <v>1.8693000000000004</v>
       </c>
-      <c r="R57">
-        <v>233</v>
-      </c>
-      <c r="S57">
-        <v>153</v>
+      <c r="R57" s="80">
+        <v>769</v>
+      </c>
+      <c r="S57" s="80">
+        <v>769</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3653,11 +3774,11 @@
       <c r="P58" s="61">
         <v>1.3085100000000001</v>
       </c>
-      <c r="R58">
-        <v>203</v>
-      </c>
-      <c r="S58">
-        <v>203</v>
+      <c r="R58" s="75">
+        <v>999</v>
+      </c>
+      <c r="S58" s="75">
+        <v>940</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="15.75" thickBot="1">
@@ -3694,11 +3815,11 @@
       <c r="P59" s="61">
         <v>0.56079000000000012</v>
       </c>
-      <c r="R59">
-        <v>158</v>
-      </c>
-      <c r="S59">
-        <v>158</v>
+      <c r="R59" s="81">
+        <v>1010</v>
+      </c>
+      <c r="S59" s="81">
+        <v>949</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -3750,11 +3871,11 @@
       <c r="P60" s="61">
         <v>1.3085100000000001</v>
       </c>
-      <c r="R60">
-        <v>129</v>
-      </c>
-      <c r="S60">
-        <v>57</v>
+      <c r="R60" s="80">
+        <v>192</v>
+      </c>
+      <c r="S60" s="80">
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -3791,11 +3912,11 @@
       <c r="P61" s="61">
         <v>1.8693000000000004</v>
       </c>
-      <c r="R61">
-        <v>248</v>
-      </c>
-      <c r="S61">
-        <v>103</v>
+      <c r="R61" s="75">
+        <v>692</v>
+      </c>
+      <c r="S61" s="75">
+        <v>658</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -3832,11 +3953,11 @@
       <c r="P62" s="61">
         <v>2.0562300000000002</v>
       </c>
-      <c r="R62">
-        <v>76</v>
-      </c>
-      <c r="S62">
-        <v>31</v>
+      <c r="R62" s="75">
+        <v>309</v>
+      </c>
+      <c r="S62" s="75">
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="15.75" thickBot="1">
@@ -3873,11 +3994,11 @@
       <c r="P63" s="61">
         <v>1.1215800000000002</v>
       </c>
-      <c r="R63">
-        <v>72</v>
-      </c>
-      <c r="S63">
-        <v>29</v>
+      <c r="R63" s="81">
+        <v>285</v>
+      </c>
+      <c r="S63" s="81">
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -3929,11 +4050,11 @@
       <c r="P64" s="61">
         <v>1.8693000000000004</v>
       </c>
-      <c r="R64">
-        <v>122</v>
-      </c>
-      <c r="S64">
-        <v>56</v>
+      <c r="R64" s="80">
+        <v>668</v>
+      </c>
+      <c r="S64" s="80">
+        <v>621</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -3970,11 +4091,11 @@
       <c r="P65" s="61">
         <v>1.3085100000000001</v>
       </c>
-      <c r="R65">
-        <v>143</v>
-      </c>
-      <c r="S65">
-        <v>125</v>
+      <c r="R65" s="75">
+        <v>1140</v>
+      </c>
+      <c r="S65" s="75">
+        <v>1059</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -4011,11 +4132,11 @@
       <c r="P66" s="61">
         <v>2.8039500000000004</v>
       </c>
-      <c r="R66">
-        <v>255</v>
-      </c>
-      <c r="S66">
-        <v>191</v>
+      <c r="R66" s="75">
+        <v>633</v>
+      </c>
+      <c r="S66" s="75">
+        <v>572</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -4052,11 +4173,11 @@
       <c r="P67" s="61">
         <v>1.8693000000000004</v>
       </c>
-      <c r="R67">
-        <v>315</v>
-      </c>
-      <c r="S67">
-        <v>288</v>
+      <c r="R67" s="75">
+        <v>577</v>
+      </c>
+      <c r="S67" s="75">
+        <v>519</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="15.75" thickBot="1">
@@ -4093,11 +4214,11 @@
       <c r="P68" s="61">
         <v>1.1215800000000002</v>
       </c>
-      <c r="R68">
-        <v>243</v>
-      </c>
-      <c r="S68">
-        <v>171</v>
+      <c r="R68" s="81">
+        <v>598</v>
+      </c>
+      <c r="S68" s="81">
+        <v>547</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="15.75" thickBot="1">
@@ -4129,6 +4250,8 @@
       <c r="N69" s="59"/>
       <c r="O69" s="59"/>
       <c r="P69" s="61"/>
+      <c r="R69" s="82"/>
+      <c r="S69" s="82"/>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="13">
@@ -4179,11 +4302,11 @@
       <c r="P70" s="61">
         <v>1.6823700000000001</v>
       </c>
-      <c r="R70">
-        <v>305</v>
-      </c>
-      <c r="S70">
-        <v>208</v>
+      <c r="R70" s="80">
+        <v>310</v>
+      </c>
+      <c r="S70" s="80">
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -4220,11 +4343,11 @@
       <c r="P71" s="61">
         <v>1.4954400000000001</v>
       </c>
-      <c r="R71">
-        <v>299</v>
-      </c>
-      <c r="S71">
-        <v>196</v>
+      <c r="R71" s="75">
+        <v>734</v>
+      </c>
+      <c r="S71" s="75">
+        <v>717</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="15.75" thickBot="1">
@@ -4261,11 +4384,11 @@
       <c r="P72" s="61">
         <v>0.56079000000000012</v>
       </c>
-      <c r="R72">
-        <v>195</v>
-      </c>
-      <c r="S72">
-        <v>112</v>
+      <c r="R72" s="81">
+        <v>527</v>
+      </c>
+      <c r="S72" s="81">
+        <v>505</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -4317,11 +4440,11 @@
       <c r="P73" s="61">
         <v>1.6823700000000001</v>
       </c>
-      <c r="R73">
-        <v>362</v>
-      </c>
-      <c r="S73">
-        <v>239</v>
+      <c r="R73" s="80">
+        <v>707</v>
+      </c>
+      <c r="S73" s="80">
+        <v>654</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -4360,11 +4483,11 @@
       <c r="P74" s="61">
         <v>2.2431600000000005</v>
       </c>
-      <c r="R74">
-        <v>187</v>
-      </c>
-      <c r="S74">
-        <v>120</v>
+      <c r="R74" s="75">
+        <v>892</v>
+      </c>
+      <c r="S74" s="75">
+        <v>843</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -4403,11 +4526,11 @@
       <c r="P75" s="61">
         <v>2.0562300000000002</v>
       </c>
-      <c r="R75">
-        <v>59</v>
-      </c>
-      <c r="S75">
-        <v>59</v>
+      <c r="R75" s="75">
+        <v>858</v>
+      </c>
+      <c r="S75" s="75">
+        <v>806</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="15.75" thickBot="1">
@@ -4446,11 +4569,11 @@
       <c r="P76" s="61">
         <v>1.2787200000000001</v>
       </c>
-      <c r="R76">
-        <v>188</v>
-      </c>
-      <c r="S76">
-        <v>158</v>
+      <c r="R76" s="81">
+        <v>655</v>
+      </c>
+      <c r="S76" s="81">
+        <v>614</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -4502,11 +4625,11 @@
       <c r="P77" s="61">
         <v>1.6823700000000001</v>
       </c>
-      <c r="R77">
-        <v>288</v>
-      </c>
-      <c r="S77">
-        <v>188</v>
+      <c r="R77" s="80">
+        <v>1072</v>
+      </c>
+      <c r="S77" s="80">
+        <v>1013</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -4545,11 +4668,11 @@
       <c r="P78" s="61">
         <v>2.1312000000000002</v>
       </c>
-      <c r="R78">
-        <v>657</v>
-      </c>
-      <c r="S78">
-        <v>439</v>
+      <c r="R78" s="75">
+        <v>740</v>
+      </c>
+      <c r="S78" s="75">
+        <v>688</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -4588,11 +4711,11 @@
       <c r="P79" s="61">
         <v>2.1312000000000002</v>
       </c>
-      <c r="R79">
-        <v>381</v>
-      </c>
-      <c r="S79">
-        <v>260</v>
+      <c r="R79" s="75">
+        <v>93</v>
+      </c>
+      <c r="S79" s="75">
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="15.75" thickBot="1">
@@ -4631,11 +4754,11 @@
       <c r="P80" s="61">
         <v>1.4918400000000001</v>
       </c>
-      <c r="R80">
-        <v>127</v>
-      </c>
-      <c r="S80">
-        <v>87</v>
+      <c r="R80" s="81">
+        <v>779</v>
+      </c>
+      <c r="S80" s="81">
+        <v>737</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -4687,11 +4810,11 @@
       <c r="P81" s="61">
         <v>1.6823700000000001</v>
       </c>
-      <c r="R81">
-        <v>58</v>
-      </c>
-      <c r="S81">
-        <v>36</v>
+      <c r="R81" s="80">
+        <v>854</v>
+      </c>
+      <c r="S81" s="80">
+        <v>854</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -4728,11 +4851,11 @@
       <c r="P82" s="61">
         <v>1.8693000000000004</v>
       </c>
-      <c r="R82">
-        <v>89</v>
-      </c>
-      <c r="S82">
-        <v>57</v>
+      <c r="R82" s="75">
+        <v>1745</v>
+      </c>
+      <c r="S82" s="75">
+        <v>1652</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="15.75" thickBot="1">
@@ -4769,11 +4892,11 @@
       <c r="P83" s="61">
         <v>0.9346500000000002</v>
       </c>
-      <c r="R83">
-        <v>350</v>
-      </c>
-      <c r="S83">
-        <v>240</v>
+      <c r="R83" s="81">
+        <v>1129</v>
+      </c>
+      <c r="S83" s="81">
+        <v>1068</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="15.75" thickBot="1">
@@ -4805,6 +4928,8 @@
       <c r="N84" s="59"/>
       <c r="O84" s="59"/>
       <c r="P84" s="61"/>
+      <c r="R84" s="82"/>
+      <c r="S84" s="82"/>
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="13">
@@ -4855,11 +4980,11 @@
       <c r="P85" s="61">
         <v>1.8693000000000004</v>
       </c>
-      <c r="R85">
-        <v>286</v>
-      </c>
-      <c r="S85">
-        <v>219</v>
+      <c r="R85" s="80">
+        <v>532</v>
+      </c>
+      <c r="S85" s="80">
+        <v>508</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -4898,11 +5023,11 @@
       <c r="P86" s="61">
         <v>2.0562300000000002</v>
       </c>
-      <c r="R86">
-        <v>261</v>
-      </c>
-      <c r="S86">
-        <v>259</v>
+      <c r="R86" s="75">
+        <v>251</v>
+      </c>
+      <c r="S86" s="75">
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="15.75" thickBot="1">
@@ -4941,11 +5066,11 @@
       <c r="P87" s="61">
         <v>0.85248000000000002</v>
       </c>
-      <c r="R87">
-        <v>195</v>
-      </c>
-      <c r="S87">
-        <v>190</v>
+      <c r="R87" s="81">
+        <v>526</v>
+      </c>
+      <c r="S87" s="81">
+        <v>510</v>
       </c>
     </row>
     <row r="88" spans="1:19" ht="15.75" thickBot="1">
@@ -4977,6 +5102,8 @@
       <c r="N88" s="59"/>
       <c r="O88" s="59"/>
       <c r="P88" s="61"/>
+      <c r="R88" s="82"/>
+      <c r="S88" s="82"/>
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="13">
@@ -5027,11 +5154,11 @@
       <c r="P89" s="61">
         <v>1.3085100000000001</v>
       </c>
-      <c r="R89">
-        <v>535</v>
-      </c>
-      <c r="S89">
-        <v>386</v>
+      <c r="R89" s="80">
+        <v>971</v>
+      </c>
+      <c r="S89" s="80">
+        <v>920</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -5068,11 +5195,11 @@
       <c r="P90" s="61">
         <v>2.0562300000000002</v>
       </c>
-      <c r="R90">
-        <v>555</v>
-      </c>
-      <c r="S90">
-        <v>342</v>
+      <c r="R90" s="75">
+        <v>790</v>
+      </c>
+      <c r="S90" s="75">
+        <v>788</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -5109,11 +5236,11 @@
       <c r="P91" s="61">
         <v>1.6823700000000001</v>
       </c>
-      <c r="R91">
-        <v>457</v>
-      </c>
-      <c r="S91">
-        <v>345</v>
+      <c r="R91" s="75">
+        <v>521</v>
+      </c>
+      <c r="S91" s="75">
+        <v>521</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="15.75" thickBot="1">
@@ -5150,11 +5277,11 @@
       <c r="P92" s="61">
         <v>0.9346500000000002</v>
       </c>
-      <c r="R92">
-        <v>496</v>
-      </c>
-      <c r="S92">
-        <v>360</v>
+      <c r="R92" s="81">
+        <v>396</v>
+      </c>
+      <c r="S92" s="81">
+        <v>396</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -5206,11 +5333,11 @@
       <c r="P93" s="61">
         <v>2.0562300000000002</v>
       </c>
-      <c r="R93">
-        <v>482</v>
-      </c>
-      <c r="S93">
-        <v>342</v>
+      <c r="R93" s="80">
+        <v>1213</v>
+      </c>
+      <c r="S93" s="80">
+        <v>1149</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -5249,11 +5376,11 @@
       <c r="P94" s="61">
         <v>0.9346500000000002</v>
       </c>
-      <c r="R94">
-        <v>519</v>
-      </c>
-      <c r="S94">
-        <v>348</v>
+      <c r="R94" s="75">
+        <v>1614</v>
+      </c>
+      <c r="S94" s="75">
+        <v>1524</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -5292,14 +5419,14 @@
       <c r="P95" s="61">
         <v>0.9346500000000002</v>
       </c>
-      <c r="R95">
-        <v>410</v>
-      </c>
-      <c r="S95">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="15.75" thickBot="1">
+      <c r="R95" s="75">
+        <v>1058</v>
+      </c>
+      <c r="S95" s="75">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="B96" s="31"/>
       <c r="C96" s="32"/>
       <c r="D96" s="33"/>
@@ -5335,257 +5462,313 @@
       <c r="P96" s="61">
         <v>2.9836800000000001</v>
       </c>
-      <c r="R96">
-        <v>389</v>
-      </c>
-      <c r="S96">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19">
-      <c r="A97" s="13">
-        <v>36</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" s="17">
-        <v>12</v>
-      </c>
-      <c r="D97" s="14">
-        <v>3</v>
-      </c>
-      <c r="E97" s="21">
-        <v>75.17</v>
-      </c>
-      <c r="F97" s="21">
-        <v>75.17</v>
-      </c>
-      <c r="G97" s="5">
-        <v>25482671</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J97" s="8">
-        <v>11</v>
-      </c>
-      <c r="K97" s="10" t="s">
-        <v>86</v>
+      <c r="R96" s="75">
+        <v>1260</v>
+      </c>
+      <c r="S96" s="75">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:42" ht="15.75">
+      <c r="B97" s="31"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97">
+        <v>25482304</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="L97" s="59">
-        <v>1705</v>
+        <v>605</v>
       </c>
       <c r="M97" s="59">
-        <v>1.7050000000000001</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="N97" s="59">
-        <v>1.34</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="O97" s="59">
         <v>0.9</v>
       </c>
       <c r="P97" s="61">
-        <v>2.0562300000000002</v>
-      </c>
-      <c r="R97">
-        <v>313</v>
-      </c>
-      <c r="S97">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19">
+        <v>0.60984000000000005</v>
+      </c>
+      <c r="R97" s="75">
+        <v>0</v>
+      </c>
+      <c r="S97" s="75">
+        <v>0</v>
+      </c>
+      <c r="T97" s="75"/>
+      <c r="U97" s="55"/>
+      <c r="AA97" s="54"/>
+      <c r="AB97" s="76"/>
+      <c r="AC97" s="77"/>
+      <c r="AD97" s="78"/>
+      <c r="AF97" s="78"/>
+      <c r="AG97" s="78"/>
+      <c r="AH97" s="76"/>
+      <c r="AI97" s="77"/>
+      <c r="AJ97" s="78"/>
+      <c r="AP97" s="79"/>
+    </row>
+    <row r="98" spans="1:42" ht="15.75">
       <c r="B98" s="31"/>
       <c r="C98" s="32"/>
       <c r="D98" s="33"/>
       <c r="E98" s="30"/>
       <c r="F98" s="30"/>
-      <c r="G98" s="3">
-        <v>25482670</v>
+      <c r="G98">
+        <v>25482307</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="L98" s="59">
-        <v>1550</v>
+        <v>605</v>
       </c>
       <c r="M98" s="59">
-        <v>1.55</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="N98" s="59">
-        <v>1.34</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="O98" s="59">
         <v>0.9</v>
       </c>
       <c r="P98" s="61">
-        <v>1.8693000000000004</v>
-      </c>
-      <c r="R98">
-        <v>314</v>
-      </c>
-      <c r="S98">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19">
+        <v>0.60984000000000005</v>
+      </c>
+      <c r="R98" s="75">
+        <v>0</v>
+      </c>
+      <c r="S98" s="75">
+        <v>0</v>
+      </c>
+      <c r="T98" s="75"/>
+      <c r="U98" s="55"/>
+      <c r="AA98" s="54"/>
+      <c r="AB98" s="76"/>
+      <c r="AC98" s="77"/>
+      <c r="AD98" s="78"/>
+      <c r="AF98" s="78"/>
+      <c r="AG98" s="78"/>
+      <c r="AH98" s="76"/>
+      <c r="AI98" s="77"/>
+      <c r="AJ98" s="78"/>
+      <c r="AP98" s="79"/>
+    </row>
+    <row r="99" spans="1:42" ht="15.75">
       <c r="B99" s="31"/>
       <c r="C99" s="32"/>
       <c r="D99" s="33"/>
       <c r="E99" s="30"/>
       <c r="F99" s="30"/>
-      <c r="G99" s="3">
-        <v>25482669</v>
+      <c r="G99">
+        <v>25482308</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7">
-        <v>10</v>
+        <v>120</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="L99" s="59">
-        <v>1550</v>
+        <v>1100</v>
       </c>
       <c r="M99" s="59">
-        <v>1.55</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N99" s="59">
-        <v>1.34</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="O99" s="59">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="P99" s="61">
-        <v>1.8693000000000004</v>
-      </c>
-      <c r="R99">
-        <v>9</v>
-      </c>
-      <c r="S99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="15.75" thickBot="1">
+        <v>0.98560000000000025</v>
+      </c>
+      <c r="R99" s="75">
+        <v>19</v>
+      </c>
+      <c r="S99" s="75">
+        <v>0</v>
+      </c>
+      <c r="T99" s="75"/>
+      <c r="U99" s="55"/>
+      <c r="AA99" s="54"/>
+      <c r="AB99" s="76"/>
+      <c r="AC99" s="77"/>
+      <c r="AD99" s="78"/>
+      <c r="AF99" s="78"/>
+      <c r="AG99" s="78"/>
+      <c r="AH99" s="76"/>
+      <c r="AI99" s="77"/>
+      <c r="AJ99" s="78"/>
+      <c r="AP99" s="79"/>
+    </row>
+    <row r="100" spans="1:42" ht="16.5" thickBot="1">
       <c r="B100" s="31"/>
       <c r="C100" s="32"/>
       <c r="D100" s="33"/>
       <c r="E100" s="30"/>
       <c r="F100" s="30"/>
-      <c r="G100" s="4">
-        <v>25482694</v>
+      <c r="G100">
+        <v>25482306</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9">
-        <v>7</v>
+        <v>123</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="L100" s="59">
-        <v>1085</v>
+        <v>800</v>
       </c>
       <c r="M100" s="59">
-        <v>1.085</v>
+        <v>0.8</v>
       </c>
       <c r="N100" s="59">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="O100" s="59">
+        <v>0.8</v>
+      </c>
+      <c r="P100" s="61">
+        <v>0.7168000000000001</v>
+      </c>
+      <c r="R100" s="75">
+        <v>0</v>
+      </c>
+      <c r="S100" s="75">
+        <v>0</v>
+      </c>
+      <c r="T100" s="75"/>
+      <c r="U100" s="55"/>
+      <c r="AA100" s="54"/>
+      <c r="AB100" s="76"/>
+      <c r="AC100" s="77"/>
+      <c r="AD100" s="78"/>
+      <c r="AF100" s="78"/>
+      <c r="AG100" s="78"/>
+      <c r="AH100" s="76"/>
+      <c r="AI100" s="77"/>
+      <c r="AJ100" s="78"/>
+      <c r="AP100" s="79"/>
+    </row>
+    <row r="101" spans="1:42">
+      <c r="A101" s="13">
+        <v>36</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="17">
+        <v>12</v>
+      </c>
+      <c r="D101" s="14">
+        <v>3</v>
+      </c>
+      <c r="E101" s="21">
+        <v>75.17</v>
+      </c>
+      <c r="F101" s="21">
+        <v>75.17</v>
+      </c>
+      <c r="G101" s="5">
+        <v>25482671</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J101" s="8">
+        <v>11</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L101" s="59">
+        <v>1705</v>
+      </c>
+      <c r="M101" s="59">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="N101" s="59">
         <v>1.34</v>
       </c>
-      <c r="O100" s="59">
-        <v>0.9</v>
-      </c>
-      <c r="P100" s="61">
-        <v>1.3085100000000001</v>
-      </c>
-      <c r="R100">
-        <v>14</v>
-      </c>
-      <c r="S100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A101" s="13">
-        <v>37</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="2">
-        <v>0</v>
-      </c>
-      <c r="F101" s="2">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="22"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="59"/>
-      <c r="M101" s="59"/>
-      <c r="N101" s="59"/>
-      <c r="O101" s="59"/>
-      <c r="P101" s="61"/>
-    </row>
-    <row r="102" spans="1:19">
-      <c r="A102" s="13">
-        <v>38</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C102" s="15">
-        <v>9</v>
-      </c>
-      <c r="D102" s="14">
-        <v>1</v>
-      </c>
-      <c r="E102" s="2">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="F102" s="2">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="G102" s="5">
-        <v>25482673</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J102" s="8">
-        <v>5</v>
-      </c>
-      <c r="K102" s="10" t="s">
-        <v>68</v>
+      <c r="O101" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="P101" s="61">
+        <v>2.0562300000000002</v>
+      </c>
+      <c r="R101" s="80">
+        <v>1318</v>
+      </c>
+      <c r="S101" s="80">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:42">
+      <c r="B102" s="31"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="3">
+        <v>25482670</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7">
+        <v>10</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="L102" s="59">
-        <v>775</v>
+        <v>1550</v>
       </c>
       <c r="M102" s="59">
-        <v>0.77500000000000002</v>
+        <v>1.55</v>
       </c>
       <c r="N102" s="59">
         <v>1.34</v>
@@ -5594,39 +5777,39 @@
         <v>0.9</v>
       </c>
       <c r="P102" s="61">
-        <v>0.9346500000000002</v>
-      </c>
-      <c r="R102">
-        <v>47</v>
-      </c>
-      <c r="S102">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" ht="15.75" thickBot="1">
-      <c r="B103" s="7"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="4">
-        <v>25482672</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9">
-        <v>5</v>
-      </c>
-      <c r="K103" s="12" t="s">
-        <v>68</v>
+        <v>1.8693000000000004</v>
+      </c>
+      <c r="R102" s="75">
+        <v>1460</v>
+      </c>
+      <c r="S102" s="75">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="103" spans="1:42">
+      <c r="B103" s="31"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="3">
+        <v>25482669</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7">
+        <v>10</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="L103" s="59">
-        <v>775</v>
+        <v>1550</v>
       </c>
       <c r="M103" s="59">
-        <v>0.77500000000000002</v>
+        <v>1.55</v>
       </c>
       <c r="N103" s="59">
         <v>1.34</v>
@@ -5635,266 +5818,246 @@
         <v>0.9</v>
       </c>
       <c r="P103" s="61">
+        <v>1.8693000000000004</v>
+      </c>
+      <c r="R103" s="75">
+        <v>1222</v>
+      </c>
+      <c r="S103" s="75">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:42" ht="15.75" thickBot="1">
+      <c r="B104" s="31"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="4">
+        <v>25482694</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9">
+        <v>7</v>
+      </c>
+      <c r="K104" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L104" s="59">
+        <v>1085</v>
+      </c>
+      <c r="M104" s="59">
+        <v>1.085</v>
+      </c>
+      <c r="N104" s="59">
+        <v>1.34</v>
+      </c>
+      <c r="O104" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="P104" s="61">
+        <v>1.3085100000000001</v>
+      </c>
+      <c r="R104" s="81">
+        <v>1064</v>
+      </c>
+      <c r="S104" s="81">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:42" ht="15.75" thickBot="1">
+      <c r="A105" s="13">
+        <v>37</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="2">
+        <v>0</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0</v>
+      </c>
+      <c r="G105" s="3"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="23"/>
+      <c r="L105" s="59"/>
+      <c r="M105" s="59"/>
+      <c r="N105" s="59"/>
+      <c r="O105" s="59"/>
+      <c r="P105" s="61"/>
+      <c r="R105" s="82"/>
+      <c r="S105" s="82"/>
+    </row>
+    <row r="106" spans="1:42">
+      <c r="A106" s="13">
+        <v>38</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="15">
+        <v>9</v>
+      </c>
+      <c r="D106" s="14">
+        <v>1</v>
+      </c>
+      <c r="E106" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F106" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="G106" s="5">
+        <v>25482673</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J106" s="8">
+        <v>5</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L106" s="59">
+        <v>775</v>
+      </c>
+      <c r="M106" s="59">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="N106" s="59">
+        <v>1.34</v>
+      </c>
+      <c r="O106" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="P106" s="61">
         <v>0.9346500000000002</v>
       </c>
-      <c r="R103">
-        <v>63</v>
-      </c>
-      <c r="S103">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19">
-      <c r="A104" s="13" t="s">
+      <c r="R106" s="80">
+        <v>875</v>
+      </c>
+      <c r="S106" s="80">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="107" spans="1:42" ht="15.75" thickBot="1">
+      <c r="B107" s="7"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="4">
+        <v>25482672</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9">
+        <v>5</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L107" s="59">
+        <v>775</v>
+      </c>
+      <c r="M107" s="59">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="N107" s="59">
+        <v>1.34</v>
+      </c>
+      <c r="O107" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="P107" s="61">
+        <v>0.9346500000000002</v>
+      </c>
+      <c r="R107" s="81">
+        <v>878</v>
+      </c>
+      <c r="S107" s="81">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="108" spans="1:42">
+      <c r="A108" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
-      <c r="B129" s="72" t="s">
+    <row r="110" spans="1:42" ht="15.75">
+      <c r="N110" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="R110" s="83">
+        <v>1613.72</v>
+      </c>
+      <c r="S110" s="84">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="B133" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="C129" s="73"/>
-      <c r="D129" s="73"/>
-      <c r="E129" s="71"/>
-      <c r="F129" s="71"/>
-    </row>
-    <row r="130" spans="1:19">
-      <c r="B130" t="s">
+      <c r="C133" s="73"/>
+      <c r="D133" s="73"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="B134" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="15.75" thickBot="1"/>
-    <row r="132" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A132" s="13">
+    <row r="135" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="136" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A136" s="13">
         <v>7</v>
       </c>
-      <c r="B132" s="35" t="s">
+      <c r="B136" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C132" s="36">
+      <c r="C136" s="36">
         <v>4</v>
       </c>
-      <c r="D132" s="37">
+      <c r="D136" s="37">
         <v>2</v>
       </c>
-      <c r="E132" s="38"/>
-      <c r="G132" s="5">
+      <c r="E136" s="38"/>
+      <c r="G136" s="5">
         <v>25482311</v>
       </c>
-      <c r="H132" s="8" t="s">
+      <c r="H136" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I132" s="8" t="s">
+      <c r="I136" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J132" s="8">
+      <c r="J136" s="8">
         <v>9</v>
       </c>
-      <c r="K132" s="10" t="s">
+      <c r="K136" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L132" s="59">
+      <c r="L136" s="59">
         <v>1665</v>
       </c>
-      <c r="M132" s="59">
+      <c r="M136" s="59">
         <v>1.665</v>
-      </c>
-      <c r="N132" s="59">
-        <v>1.28</v>
-      </c>
-      <c r="O132" s="59">
-        <v>0.9</v>
-      </c>
-      <c r="P132" s="61">
-        <v>1.9180800000000002</v>
-      </c>
-      <c r="R132">
-        <v>217</v>
-      </c>
-      <c r="S132">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A133" s="13">
-        <v>7</v>
-      </c>
-      <c r="B133" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" s="36">
-        <v>4</v>
-      </c>
-      <c r="D133" s="37">
-        <v>2</v>
-      </c>
-      <c r="E133" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F133" t="s">
-        <v>111</v>
-      </c>
-      <c r="G133" s="5">
-        <v>25482311</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I133" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J133" s="8">
-        <v>9</v>
-      </c>
-      <c r="K133" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L133" s="59">
-        <v>1665</v>
-      </c>
-      <c r="M133" s="59">
-        <v>1.665</v>
-      </c>
-      <c r="N133" s="59">
-        <v>1.28</v>
-      </c>
-      <c r="O133" s="59">
-        <v>0.9</v>
-      </c>
-      <c r="P133" s="61">
-        <v>1.9180800000000002</v>
-      </c>
-      <c r="R133">
-        <v>217</v>
-      </c>
-      <c r="S133">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19">
-      <c r="A134" s="13">
-        <v>7</v>
-      </c>
-      <c r="B134" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="36">
-        <v>4</v>
-      </c>
-      <c r="D134" s="37">
-        <v>2</v>
-      </c>
-      <c r="E134" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="F134" t="s">
-        <v>114</v>
-      </c>
-      <c r="G134" s="5">
-        <v>25482311</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I134" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J134" s="8">
-        <v>9</v>
-      </c>
-      <c r="K134" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L134" s="59">
-        <v>1665</v>
-      </c>
-      <c r="M134" s="59">
-        <v>1.665</v>
-      </c>
-      <c r="N134" s="59">
-        <v>1.28</v>
-      </c>
-      <c r="O134" s="59">
-        <v>0.9</v>
-      </c>
-      <c r="P134" s="61">
-        <v>1.9180800000000002</v>
-      </c>
-      <c r="R134">
-        <v>217</v>
-      </c>
-      <c r="S134">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A135" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B135" s="31"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="4">
-        <v>25482313</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I135" s="9"/>
-      <c r="J135" s="9">
-        <v>8</v>
-      </c>
-      <c r="K135" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L135" s="59">
-        <v>1480</v>
-      </c>
-      <c r="M135" s="59">
-        <v>1.48</v>
-      </c>
-      <c r="N135" s="59">
-        <v>1.28</v>
-      </c>
-      <c r="O135" s="59">
-        <v>0.9</v>
-      </c>
-      <c r="P135" s="61">
-        <v>1.70496</v>
-      </c>
-      <c r="R135">
-        <v>344</v>
-      </c>
-      <c r="S135">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19">
-      <c r="B136" s="31"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="30"/>
-      <c r="F136" s="30"/>
-      <c r="G136" s="3">
-        <v>25482312</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7">
-        <v>11</v>
-      </c>
-      <c r="K136" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L136" s="59">
-        <v>2035</v>
-      </c>
-      <c r="M136" s="59">
-        <v>2.0350000000000001</v>
       </c>
       <c r="N136" s="59">
         <v>1.28</v>
@@ -5903,39 +6066,54 @@
         <v>0.9</v>
       </c>
       <c r="P136" s="61">
-        <v>2.3443200000000006</v>
+        <v>1.9180800000000002</v>
       </c>
       <c r="R136">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="S136">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:19" ht="15.75" thickBot="1">
-      <c r="B137" s="31"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="4">
-        <v>25482313</v>
-      </c>
-      <c r="H137" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I137" s="9"/>
-      <c r="J137" s="9">
-        <v>8</v>
-      </c>
-      <c r="K137" s="12" t="s">
-        <v>56</v>
+      <c r="A137" s="13">
+        <v>7</v>
+      </c>
+      <c r="B137" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="36">
+        <v>4</v>
+      </c>
+      <c r="D137" s="37">
+        <v>2</v>
+      </c>
+      <c r="E137" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F137" t="s">
+        <v>111</v>
+      </c>
+      <c r="G137" s="5">
+        <v>25482311</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J137" s="8">
+        <v>9</v>
+      </c>
+      <c r="K137" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="L137" s="59">
-        <v>1480</v>
+        <v>1665</v>
       </c>
       <c r="M137" s="59">
-        <v>1.48</v>
+        <v>1.665</v>
       </c>
       <c r="N137" s="59">
         <v>1.28</v>
@@ -5944,12 +6122,194 @@
         <v>0.9</v>
       </c>
       <c r="P137" s="61">
+        <v>1.9180800000000002</v>
+      </c>
+      <c r="R137">
+        <v>217</v>
+      </c>
+      <c r="S137">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
+      <c r="A138" s="13">
+        <v>7</v>
+      </c>
+      <c r="B138" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="36">
+        <v>4</v>
+      </c>
+      <c r="D138" s="37">
+        <v>2</v>
+      </c>
+      <c r="E138" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F138" t="s">
+        <v>114</v>
+      </c>
+      <c r="G138" s="5">
+        <v>25482311</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J138" s="8">
+        <v>9</v>
+      </c>
+      <c r="K138" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L138" s="59">
+        <v>1665</v>
+      </c>
+      <c r="M138" s="59">
+        <v>1.665</v>
+      </c>
+      <c r="N138" s="59">
+        <v>1.28</v>
+      </c>
+      <c r="O138" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="P138" s="61">
+        <v>1.9180800000000002</v>
+      </c>
+      <c r="R138">
+        <v>217</v>
+      </c>
+      <c r="S138">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A139" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B139" s="31"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="4">
+        <v>25482313</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9">
+        <v>8</v>
+      </c>
+      <c r="K139" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L139" s="59">
+        <v>1480</v>
+      </c>
+      <c r="M139" s="59">
+        <v>1.48</v>
+      </c>
+      <c r="N139" s="59">
+        <v>1.28</v>
+      </c>
+      <c r="O139" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="P139" s="61">
         <v>1.70496</v>
       </c>
-      <c r="R137">
+      <c r="R139">
         <v>344</v>
       </c>
-      <c r="S137">
+      <c r="S139">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
+      <c r="B140" s="31"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="3">
+        <v>25482312</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7">
+        <v>11</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L140" s="59">
+        <v>2035</v>
+      </c>
+      <c r="M140" s="59">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="N140" s="59">
+        <v>1.28</v>
+      </c>
+      <c r="O140" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="P140" s="61">
+        <v>2.3443200000000006</v>
+      </c>
+      <c r="R140">
+        <v>182</v>
+      </c>
+      <c r="S140">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="15.75" thickBot="1">
+      <c r="B141" s="31"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="30"/>
+      <c r="G141" s="4">
+        <v>25482313</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9">
+        <v>8</v>
+      </c>
+      <c r="K141" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L141" s="59">
+        <v>1480</v>
+      </c>
+      <c r="M141" s="59">
+        <v>1.48</v>
+      </c>
+      <c r="N141" s="59">
+        <v>1.28</v>
+      </c>
+      <c r="O141" s="59">
+        <v>0.9</v>
+      </c>
+      <c r="P141" s="61">
+        <v>1.70496</v>
+      </c>
+      <c r="R141">
+        <v>344</v>
+      </c>
+      <c r="S141">
         <v>235</v>
       </c>
     </row>

--- a/Src/Data_files/test.xlsx
+++ b/Src/Data_files/test.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="квартири, площі" sheetId="2" r:id="rId1"/>
-    <sheet name="результат расчета программой" sheetId="4" r:id="rId2"/>
+    <sheet name="report" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
@@ -1268,8 +1268,9 @@
   <dimension ref="A1:AP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R110" sqref="R110"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K108" sqref="K108"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6325,7 +6326,7 @@
   <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K108" sqref="K108"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7926,5 +7927,6 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Src/Data_files/test.xlsx
+++ b/Src/Data_files/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="квартири, площі" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="125">
   <si>
     <t>№ квартири</t>
   </si>
@@ -468,7 +468,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,6 +514,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -990,6 +996,16 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1267,10 +1283,10 @@
   </sheetPr>
   <dimension ref="A1:AP141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K108" sqref="K108"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6323,10 +6339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6336,7 +6352,7 @@
     <col min="4" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="65.25">
+    <row r="1" spans="1:12" ht="65.25">
       <c r="A1" s="63" t="s">
         <v>88</v>
       </c>
@@ -6358,8 +6374,23 @@
       <c r="G1" s="65" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+      <c r="H1" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -6379,8 +6410,21 @@
       <c r="G2" s="68">
         <v>1.3453272431589767</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
+      <c r="H2" s="90"/>
+      <c r="I2" s="87">
+        <v>2.0807875767169266</v>
+      </c>
+      <c r="J2" s="87">
+        <v>8.1599512812428512E-2</v>
+      </c>
+      <c r="K2" s="87">
+        <v>0.16319902562485702</v>
+      </c>
+      <c r="L2" s="87">
+        <v>2.3255861151542123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -6400,8 +6444,21 @@
       <c r="G3" s="68">
         <v>1.1797136027700976</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
+      <c r="H3" s="90"/>
+      <c r="I3" s="87">
+        <v>1.8246366608647586</v>
+      </c>
+      <c r="J3" s="87">
+        <v>7.1554378857441536E-2</v>
+      </c>
+      <c r="K3" s="87">
+        <v>0.14310875771488307</v>
+      </c>
+      <c r="L3" s="87">
+        <v>2.0392997974370832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -6421,8 +6478,21 @@
       <c r="G4" s="68">
         <v>1.1543043867104341</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75">
+      <c r="H4" s="90"/>
+      <c r="I4" s="87">
+        <v>1.7853367943230563</v>
+      </c>
+      <c r="J4" s="87">
+        <v>7.0013207620512025E-2</v>
+      </c>
+      <c r="K4" s="87">
+        <v>0.14002641524102405</v>
+      </c>
+      <c r="L4" s="87">
+        <v>1.9953764171845922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -6442,8 +6512,21 @@
       <c r="G5" s="68">
         <v>1.5245529635798187</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75">
+      <c r="H5" s="90"/>
+      <c r="I5" s="87">
+        <v>2.3579919925021495</v>
+      </c>
+      <c r="J5" s="87">
+        <v>9.2470274215770601E-2</v>
+      </c>
+      <c r="K5" s="87">
+        <v>0.1849405484315412</v>
+      </c>
+      <c r="L5" s="87">
+        <v>2.6354028151494613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -6463,8 +6546,21 @@
       <c r="G6" s="68">
         <v>1.5433830076240336</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
+      <c r="H6" s="90"/>
+      <c r="I6" s="87">
+        <v>2.3871160007428758</v>
+      </c>
+      <c r="J6" s="87">
+        <v>9.3612392185995139E-2</v>
+      </c>
+      <c r="K6" s="87">
+        <v>0.18722478437199028</v>
+      </c>
+      <c r="L6" s="87">
+        <v>2.6679531773008609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -6484,8 +6580,21 @@
       <c r="G7" s="68">
         <v>1.1797136027700976</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75">
+      <c r="H7" s="90"/>
+      <c r="I7" s="87">
+        <v>1.8246366608647586</v>
+      </c>
+      <c r="J7" s="87">
+        <v>7.1554378857441536E-2</v>
+      </c>
+      <c r="K7" s="87">
+        <v>0.14310875771488307</v>
+      </c>
+      <c r="L7" s="87">
+        <v>2.0392997974370832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -6505,8 +6614,20 @@
       <c r="G8" s="68">
         <v>0.66112731145866177</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75">
+      <c r="H8" s="88">
+        <v>0.91726826308110088</v>
+      </c>
+      <c r="J8" s="88">
+        <v>7.1416774282715687E-2</v>
+      </c>
+      <c r="K8" s="88">
+        <v>0.14283354856543137</v>
+      </c>
+      <c r="L8" s="89">
+        <v>1.1315185859292478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="29"/>
       <c r="B9" s="31"/>
       <c r="C9" s="70"/>
@@ -6514,8 +6635,9 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="69"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="L9" s="79"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="29"/>
       <c r="B10" s="31"/>
       <c r="C10" s="7"/>
@@ -6523,8 +6645,9 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="69"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75">
+      <c r="L10" s="79"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="29">
         <v>8</v>
       </c>
@@ -6544,8 +6667,21 @@
       <c r="G11" s="68">
         <v>1.7053667600043894</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75">
+      <c r="H11" s="90"/>
+      <c r="I11" s="87">
+        <v>2.6376526499462289</v>
+      </c>
+      <c r="J11" s="87">
+        <v>0.10343735882142077</v>
+      </c>
+      <c r="K11" s="87">
+        <v>0.20687471764284154</v>
+      </c>
+      <c r="L11" s="87">
+        <v>2.9479647264104911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="29">
         <v>9</v>
       </c>
@@ -6565,8 +6701,20 @@
       <c r="G12" s="68">
         <v>0.59016202370600745</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75">
+      <c r="H12" s="88">
+        <v>1.3475056350067938</v>
+      </c>
+      <c r="J12" s="88">
+        <v>9.3612392185995139E-2</v>
+      </c>
+      <c r="K12" s="88">
+        <v>0.18722478437199028</v>
+      </c>
+      <c r="L12" s="89">
+        <v>1.6283428115647791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="29"/>
       <c r="B13" s="31"/>
       <c r="C13" s="70"/>
@@ -6574,8 +6722,9 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="69"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75">
+      <c r="L13" s="79"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="29"/>
       <c r="B14" s="31"/>
       <c r="C14" s="70"/>
@@ -6583,8 +6732,9 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="69"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="L14" s="79"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="29"/>
       <c r="B15" s="31"/>
       <c r="C15" s="7"/>
@@ -6592,8 +6742,9 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="69"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75">
+      <c r="L15" s="79"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="29">
         <v>10</v>
       </c>
@@ -6613,8 +6764,20 @@
       <c r="G16" s="68">
         <v>0.52150460801542819</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75">
+      <c r="H16" s="88">
+        <v>0.73729140267923488</v>
+      </c>
+      <c r="J16" s="88">
+        <v>7.1554378857441536E-2</v>
+      </c>
+      <c r="K16" s="88">
+        <v>0.14310875771488307</v>
+      </c>
+      <c r="L16" s="89">
+        <v>0.95195453925155948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="29"/>
       <c r="B17" s="31"/>
       <c r="C17" s="70"/>
@@ -6622,8 +6785,9 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="69"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75">
+      <c r="L17" s="79"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="29"/>
       <c r="B18" s="31"/>
       <c r="C18" s="70"/>
@@ -6631,8 +6795,9 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="69"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="L18" s="79"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="29"/>
       <c r="B19" s="31"/>
       <c r="C19" s="7"/>
@@ -6640,8 +6805,9 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="69"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75">
+      <c r="L19" s="79"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="29">
         <v>11</v>
       </c>
@@ -6661,8 +6827,20 @@
       <c r="G20" s="68">
         <v>0.45023385315804476</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75">
+      <c r="H20" s="88">
+        <v>0.60598669743983791</v>
+      </c>
+      <c r="J20" s="88">
+        <v>7.1416774282715687E-2</v>
+      </c>
+      <c r="K20" s="88">
+        <v>0.14283354856543137</v>
+      </c>
+      <c r="L20" s="89">
+        <v>0.82023702028798495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="29"/>
       <c r="B21" s="31"/>
       <c r="C21" s="70"/>
@@ -6670,8 +6848,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="69"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75">
+      <c r="L21" s="79"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="29"/>
       <c r="B22" s="31"/>
       <c r="C22" s="70"/>
@@ -6679,8 +6858,9 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="69"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="L22" s="79"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="29"/>
       <c r="B23" s="31"/>
       <c r="C23" s="7"/>
@@ -6688,8 +6868,9 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="69"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75">
+      <c r="L23" s="79"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75">
       <c r="A24" s="29">
         <v>12</v>
       </c>
@@ -6709,8 +6890,21 @@
       <c r="G24" s="68">
         <v>1.6742858439314077</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75">
+      <c r="H24" s="90"/>
+      <c r="I24" s="87">
+        <v>2.5895804917657537</v>
+      </c>
+      <c r="J24" s="87">
+        <v>0.10155217614767663</v>
+      </c>
+      <c r="K24" s="87">
+        <v>0.20310435229535326</v>
+      </c>
+      <c r="L24" s="87">
+        <v>2.8942370202087835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75">
       <c r="A25" s="29">
         <v>13</v>
       </c>
@@ -6730,8 +6924,21 @@
       <c r="G25" s="68">
         <v>1.5767326037023421</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75">
+      <c r="H25" s="90"/>
+      <c r="I25" s="87">
+        <v>2.43869707557886</v>
+      </c>
+      <c r="J25" s="87">
+        <v>9.5635179434465117E-2</v>
+      </c>
+      <c r="K25" s="87">
+        <v>0.19127035886893023</v>
+      </c>
+      <c r="L25" s="87">
+        <v>2.7256026138822556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75">
       <c r="A26" s="29">
         <v>14</v>
       </c>
@@ -6751,8 +6958,20 @@
       <c r="G26" s="68">
         <v>0.44138532656418727</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75">
+      <c r="H26" s="88">
+        <v>0.59511226477435208</v>
+      </c>
+      <c r="J26" s="88">
+        <v>7.0013207620512025E-2</v>
+      </c>
+      <c r="K26" s="88">
+        <v>0.14002641524102405</v>
+      </c>
+      <c r="L26" s="89">
+        <v>0.80515188763588807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75">
       <c r="A27" s="29"/>
       <c r="B27" s="31"/>
       <c r="C27" s="70"/>
@@ -6760,8 +6979,9 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="69"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="L27" s="79"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="29"/>
       <c r="B28" s="31"/>
       <c r="C28" s="7"/>
@@ -6769,8 +6989,9 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="69"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75">
+      <c r="L28" s="79"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75">
       <c r="A29" s="29">
         <v>15</v>
       </c>
@@ -6790,8 +7011,20 @@
       <c r="G29" s="68">
         <v>0.44138532656418727</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75">
+      <c r="H29" s="88">
+        <v>0.59407713228784109</v>
+      </c>
+      <c r="J29" s="88">
+        <v>7.0013207620512025E-2</v>
+      </c>
+      <c r="K29" s="88">
+        <v>0.14002641524102405</v>
+      </c>
+      <c r="L29" s="89">
+        <v>0.80411675514937708</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75">
       <c r="A30" s="29"/>
       <c r="B30" s="31"/>
       <c r="C30" s="70"/>
@@ -6799,8 +7032,9 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="69"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75">
+      <c r="L30" s="79"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75">
       <c r="A31" s="29"/>
       <c r="B31" s="31"/>
       <c r="C31" s="70"/>
@@ -6808,8 +7042,9 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="69"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="L31" s="79"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="29"/>
       <c r="B32" s="31"/>
       <c r="C32" s="7"/>
@@ -6817,8 +7052,9 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="69"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75">
+      <c r="L32" s="79"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75">
       <c r="A33" s="29">
         <v>16</v>
       </c>
@@ -6838,8 +7074,20 @@
       <c r="G33" s="68">
         <v>0.64021692414380915</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75">
+      <c r="H33" s="88">
+        <v>0.95192369262133358</v>
+      </c>
+      <c r="J33" s="88">
+        <v>0.10155217614767663</v>
+      </c>
+      <c r="K33" s="88">
+        <v>0.20310435229535326</v>
+      </c>
+      <c r="L33" s="89">
+        <v>1.2565802210643635</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75">
       <c r="A34" s="29"/>
       <c r="B34" s="31"/>
       <c r="C34" s="70"/>
@@ -6847,8 +7095,9 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="69"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75">
+      <c r="L34" s="79"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75">
       <c r="A35" s="29"/>
       <c r="B35" s="31"/>
       <c r="C35" s="70"/>
@@ -6856,8 +7105,9 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="69"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="L35" s="79"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="29"/>
       <c r="B36" s="31"/>
       <c r="C36" s="7"/>
@@ -6865,8 +7115,9 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="69"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75">
+      <c r="L36" s="79"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75">
       <c r="A37" s="29">
         <v>17</v>
       </c>
@@ -6886,8 +7137,20 @@
       <c r="G37" s="68">
         <v>0.65544762202620865</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75">
+      <c r="H37" s="88">
+        <v>1.2086453829647645</v>
+      </c>
+      <c r="J37" s="88">
+        <v>9.3612392185995139E-2</v>
+      </c>
+      <c r="K37" s="88">
+        <v>0.18722478437199028</v>
+      </c>
+      <c r="L37" s="89">
+        <v>1.4894825595227499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75">
       <c r="A38" s="29"/>
       <c r="B38" s="31"/>
       <c r="C38" s="70"/>
@@ -6895,8 +7158,9 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="69"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75">
+      <c r="L38" s="79"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75">
       <c r="A39" s="29"/>
       <c r="B39" s="31"/>
       <c r="C39" s="70"/>
@@ -6904,8 +7168,9 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="69"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="L39" s="79"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="29"/>
       <c r="B40" s="31"/>
       <c r="C40" s="7"/>
@@ -6913,8 +7178,9 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="69"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75">
+      <c r="L40" s="79"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75">
       <c r="A41" s="29">
         <v>18</v>
       </c>
@@ -6934,8 +7200,20 @@
       <c r="G41" s="68">
         <v>0.70820481746373931</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75">
+      <c r="H41" s="88">
+        <v>0.90609021520360067</v>
+      </c>
+      <c r="J41" s="88">
+        <v>7.0013207620512025E-2</v>
+      </c>
+      <c r="K41" s="88">
+        <v>0.14002641524102405</v>
+      </c>
+      <c r="L41" s="89">
+        <v>1.1161298380651368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75">
       <c r="A42" s="29"/>
       <c r="B42" s="31"/>
       <c r="C42" s="70"/>
@@ -6943,8 +7221,9 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="69"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75">
+      <c r="L42" s="79"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75">
       <c r="A43" s="29"/>
       <c r="B43" s="31"/>
       <c r="C43" s="70"/>
@@ -6952,8 +7231,9 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="69"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="L43" s="79"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="29"/>
       <c r="B44" s="31"/>
       <c r="C44" s="7"/>
@@ -6961,8 +7241,9 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="69"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75">
+      <c r="L44" s="79"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75">
       <c r="A45" s="29">
         <v>19</v>
       </c>
@@ -6982,8 +7263,21 @@
       <c r="G45" s="68">
         <v>1.1774449227647705</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75">
+      <c r="H45" s="87"/>
+      <c r="I45" s="87">
+        <v>1.8211277442092495</v>
+      </c>
+      <c r="J45" s="87">
+        <v>7.1416774282715687E-2</v>
+      </c>
+      <c r="K45" s="87">
+        <v>0.14283354856543137</v>
+      </c>
+      <c r="L45" s="87">
+        <v>2.0353780670573967</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75">
       <c r="A46" s="29">
         <v>20</v>
       </c>
@@ -7003,8 +7297,20 @@
       <c r="G46" s="68">
         <v>1.1648389160719919</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75">
+      <c r="H46" s="88">
+        <v>1.7500656382491941</v>
+      </c>
+      <c r="J46" s="88">
+        <v>9.1933616374339791E-2</v>
+      </c>
+      <c r="K46" s="88">
+        <v>0.18386723274867958</v>
+      </c>
+      <c r="L46" s="89">
+        <v>2.0258664873722134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75">
       <c r="A47" s="29"/>
       <c r="B47" s="31"/>
       <c r="C47" s="70"/>
@@ -7012,8 +7318,9 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="69"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75">
+      <c r="L47" s="79"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75">
       <c r="A48" s="29"/>
       <c r="B48" s="31"/>
       <c r="C48" s="70"/>
@@ -7021,8 +7328,9 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="69"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="L48" s="79"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="29"/>
       <c r="B49" s="31"/>
       <c r="C49" s="7"/>
@@ -7030,8 +7338,9 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="69"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75">
+      <c r="L49" s="79"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75">
       <c r="A50" s="29">
         <v>21</v>
       </c>
@@ -7051,8 +7360,20 @@
       <c r="G50" s="68">
         <v>0.60291431203244916</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75">
+      <c r="H50" s="88">
+        <v>0.8114850765331163</v>
+      </c>
+      <c r="J50" s="88">
+        <v>9.5635179434465117E-2</v>
+      </c>
+      <c r="K50" s="88">
+        <v>0.19127035886893023</v>
+      </c>
+      <c r="L50" s="89">
+        <v>1.0983906148365117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75">
       <c r="A51" s="29"/>
       <c r="B51" s="31"/>
       <c r="C51" s="70"/>
@@ -7060,8 +7381,9 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="69"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75">
+      <c r="L51" s="79"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75">
       <c r="A52" s="29"/>
       <c r="B52" s="31"/>
       <c r="C52" s="70"/>
@@ -7069,8 +7391,9 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="69"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="L52" s="79"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="29"/>
       <c r="B53" s="31"/>
       <c r="C53" s="7"/>
@@ -7078,8 +7401,9 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="69"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75">
+      <c r="L53" s="79"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75">
       <c r="A54" s="29">
         <v>22</v>
       </c>
@@ -7099,8 +7423,20 @@
       <c r="G54" s="68">
         <v>0.48562795953347482</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75">
+      <c r="H54" s="88">
+        <v>0.65362495804782506</v>
+      </c>
+      <c r="J54" s="88">
+        <v>7.703104093153032E-2</v>
+      </c>
+      <c r="K54" s="88">
+        <v>0.15406208186306064</v>
+      </c>
+      <c r="L54" s="89">
+        <v>0.88471808084241599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75">
       <c r="A55" s="29"/>
       <c r="B55" s="31"/>
       <c r="C55" s="70"/>
@@ -7108,8 +7444,9 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="69"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="L55" s="79"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="29"/>
       <c r="B56" s="31"/>
       <c r="C56" s="7"/>
@@ -7117,8 +7454,9 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="69"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.75">
+      <c r="L56" s="79"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75">
       <c r="A57" s="29">
         <v>23</v>
       </c>
@@ -7138,8 +7476,20 @@
       <c r="G57" s="68">
         <v>0.55407515053544887</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75">
+      <c r="H57" s="88">
+        <v>0.60598669743983791</v>
+      </c>
+      <c r="J57" s="88">
+        <v>7.1416774282715687E-2</v>
+      </c>
+      <c r="K57" s="88">
+        <v>0.14283354856543137</v>
+      </c>
+      <c r="L57" s="89">
+        <v>0.82023702028798495</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75">
       <c r="A58" s="29"/>
       <c r="B58" s="31"/>
       <c r="C58" s="70"/>
@@ -7147,8 +7497,9 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="69"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="L58" s="79"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75">
       <c r="A59" s="29"/>
       <c r="B59" s="31"/>
       <c r="C59" s="7"/>
@@ -7156,8 +7507,9 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="69"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75">
+      <c r="L59" s="89"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75">
       <c r="A60" s="29">
         <v>24</v>
       </c>
@@ -7177,8 +7529,20 @@
       <c r="G60" s="68">
         <v>0.60569032037562009</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75">
+      <c r="H60" s="88">
+        <v>0.81664186962549634</v>
+      </c>
+      <c r="J60" s="88">
+        <v>9.6075514073587831E-2</v>
+      </c>
+      <c r="K60" s="88">
+        <v>0.19215102814717566</v>
+      </c>
+      <c r="L60" s="89">
+        <v>1.1048684118462599</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75">
       <c r="A61" s="29"/>
       <c r="B61" s="31"/>
       <c r="C61" s="70"/>
@@ -7186,8 +7550,9 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="69"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.75">
+      <c r="L61" s="79"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75">
       <c r="A62" s="29"/>
       <c r="B62" s="31"/>
       <c r="C62" s="70"/>
@@ -7195,8 +7560,9 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="69"/>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="L62" s="79"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="29"/>
       <c r="B63" s="31"/>
       <c r="C63" s="7"/>
@@ -7204,8 +7570,9 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="69"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75">
+      <c r="L63" s="79"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75">
       <c r="A64" s="29">
         <v>25</v>
       </c>
@@ -7225,8 +7592,20 @@
       <c r="G64" s="68">
         <v>0.85660055746999486</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75">
+      <c r="H64" s="88">
+        <v>2.6354847843821405</v>
+      </c>
+      <c r="J64" s="88">
+        <v>9.3612392185995139E-2</v>
+      </c>
+      <c r="K64" s="88">
+        <v>0.18722478437199028</v>
+      </c>
+      <c r="L64" s="89">
+        <v>2.9163219609401256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15.75">
       <c r="A65" s="29"/>
       <c r="B65" s="31"/>
       <c r="C65" s="70"/>
@@ -7234,8 +7613,9 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="69"/>
-    </row>
-    <row r="66" spans="1:7" ht="15.75">
+      <c r="L65" s="79"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75">
       <c r="A66" s="29"/>
       <c r="B66" s="31"/>
       <c r="C66" s="70"/>
@@ -7243,8 +7623,9 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="69"/>
-    </row>
-    <row r="67" spans="1:7" ht="15.75">
+      <c r="L66" s="79"/>
+    </row>
+    <row r="67" spans="1:12" ht="15.75">
       <c r="A67" s="29"/>
       <c r="B67" s="31"/>
       <c r="C67" s="70"/>
@@ -7252,8 +7633,9 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="69"/>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="L67" s="79"/>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="29"/>
       <c r="B68" s="31"/>
       <c r="C68" s="7"/>
@@ -7261,8 +7643,9 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="69"/>
-    </row>
-    <row r="69" spans="1:7" ht="15.75">
+      <c r="L68" s="79"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75">
       <c r="A69" s="29">
         <v>26</v>
       </c>
@@ -7282,8 +7665,21 @@
       <c r="G69" s="68">
         <v>1.1865196427860789</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75">
+      <c r="H69" s="90"/>
+      <c r="I69" s="87">
+        <v>1.835163410831286</v>
+      </c>
+      <c r="J69" s="87">
+        <v>7.1967192581619072E-2</v>
+      </c>
+      <c r="K69" s="87">
+        <v>0.14393438516323814</v>
+      </c>
+      <c r="L69" s="87">
+        <v>2.0510649885761429</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.75">
       <c r="A70" s="29">
         <v>27</v>
       </c>
@@ -7303,8 +7699,20 @@
       <c r="G70" s="68">
         <v>0.45163160671129843</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75">
+      <c r="H70" s="88">
+        <v>0.60598669743983791</v>
+      </c>
+      <c r="J70" s="88">
+        <v>7.1416774282715687E-2</v>
+      </c>
+      <c r="K70" s="88">
+        <v>0.14283354856543137</v>
+      </c>
+      <c r="L70" s="89">
+        <v>0.82023702028798495</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.75">
       <c r="A71" s="29"/>
       <c r="B71" s="31"/>
       <c r="C71" s="70"/>
@@ -7312,8 +7720,9 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="69"/>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="L71" s="79"/>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="29"/>
       <c r="B72" s="31"/>
       <c r="C72" s="7"/>
@@ -7321,8 +7730,9 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="69"/>
-    </row>
-    <row r="73" spans="1:7" ht="15.75">
+      <c r="L72" s="79"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75">
       <c r="A73" s="29">
         <v>28</v>
       </c>
@@ -7342,8 +7752,20 @@
       <c r="G73" s="68">
         <v>0.92227142136812579</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75">
+      <c r="H73" s="88">
+        <v>1.7131938893681744</v>
+      </c>
+      <c r="J73" s="88">
+        <v>9.1919855916867188E-2</v>
+      </c>
+      <c r="K73" s="88">
+        <v>0.18383971183373438</v>
+      </c>
+      <c r="L73" s="89">
+        <v>1.9889534571187761</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75">
       <c r="A74" s="29"/>
       <c r="B74" s="31"/>
       <c r="C74" s="70"/>
@@ -7351,8 +7773,9 @@
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="69"/>
-    </row>
-    <row r="75" spans="1:7" ht="15.75">
+      <c r="L74" s="79"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75">
       <c r="A75" s="29"/>
       <c r="B75" s="31"/>
       <c r="C75" s="70"/>
@@ -7360,8 +7783,9 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="69"/>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="L75" s="79"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="29"/>
       <c r="B76" s="31"/>
       <c r="C76" s="7"/>
@@ -7369,8 +7793,9 @@
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="69"/>
-    </row>
-    <row r="77" spans="1:7" ht="15.75">
+      <c r="L76" s="79"/>
+    </row>
+    <row r="77" spans="1:12" ht="15.75">
       <c r="A77" s="29">
         <v>29</v>
       </c>
@@ -7390,8 +7815,20 @@
       <c r="G77" s="68">
         <v>0.61504658083297015</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75">
+      <c r="H77" s="88">
+        <v>1.6290212101734896</v>
+      </c>
+      <c r="J77" s="88">
+        <v>9.7424038905901164E-2</v>
+      </c>
+      <c r="K77" s="88">
+        <v>0.19484807781180233</v>
+      </c>
+      <c r="L77" s="89">
+        <v>1.9212933268911929</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75">
       <c r="A78" s="29"/>
       <c r="B78" s="31"/>
       <c r="C78" s="70"/>
@@ -7399,8 +7836,9 @@
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="69"/>
-    </row>
-    <row r="79" spans="1:7" ht="15.75">
+      <c r="L78" s="79"/>
+    </row>
+    <row r="79" spans="1:12" ht="15.75">
       <c r="A79" s="29"/>
       <c r="B79" s="31"/>
       <c r="C79" s="70"/>
@@ -7408,8 +7846,9 @@
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="69"/>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="L79" s="79"/>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="29"/>
       <c r="B80" s="31"/>
       <c r="C80" s="7"/>
@@ -7417,8 +7856,9 @@
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="69"/>
-    </row>
-    <row r="81" spans="1:7" ht="15.75">
+      <c r="L80" s="79"/>
+    </row>
+    <row r="81" spans="1:12" ht="15.75">
       <c r="A81" s="29">
         <v>30</v>
       </c>
@@ -7438,8 +7878,20 @@
       <c r="G81" s="68">
         <v>0.94823207270074628</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="15.75">
+      <c r="H81" s="88">
+        <v>1.0737323151539471</v>
+      </c>
+      <c r="J81" s="88">
+        <v>7.1829588006893236E-2</v>
+      </c>
+      <c r="K81" s="88">
+        <v>0.14365917601378647</v>
+      </c>
+      <c r="L81" s="89">
+        <v>1.2892210791746268</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75">
       <c r="A82" s="29"/>
       <c r="B82" s="31"/>
       <c r="C82" s="70"/>
@@ -7447,8 +7899,9 @@
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="69"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="L82" s="79"/>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="29"/>
       <c r="B83" s="31"/>
       <c r="C83" s="7"/>
@@ -7456,8 +7909,9 @@
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="69"/>
-    </row>
-    <row r="84" spans="1:7" ht="15.75">
+      <c r="L83" s="79"/>
+    </row>
+    <row r="84" spans="1:12" ht="15.75">
       <c r="A84" s="29">
         <v>31</v>
       </c>
@@ -7477,8 +7931,21 @@
       <c r="G84" s="68">
         <v>1.7053667600043894</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75">
+      <c r="H84" s="90"/>
+      <c r="I84" s="87">
+        <v>2.6376526499462289</v>
+      </c>
+      <c r="J84" s="87">
+        <v>0.10343735882142077</v>
+      </c>
+      <c r="K84" s="87">
+        <v>0.20687471764284154</v>
+      </c>
+      <c r="L84" s="87">
+        <v>2.9479647264104911</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75">
       <c r="A85" s="29">
         <v>32</v>
       </c>
@@ -7498,8 +7965,20 @@
       <c r="G85" s="68">
         <v>0.51050417779133062</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.75">
+      <c r="H85" s="88">
+        <v>0.60832190629317073</v>
+      </c>
+      <c r="J85" s="88">
+        <v>7.1691983432167386E-2</v>
+      </c>
+      <c r="K85" s="88">
+        <v>0.14338396686433477</v>
+      </c>
+      <c r="L85" s="89">
+        <v>0.82339785658967291</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.75">
       <c r="A86" s="29"/>
       <c r="B86" s="31"/>
       <c r="C86" s="70"/>
@@ -7507,8 +7986,9 @@
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="69"/>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="L86" s="79"/>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="29"/>
       <c r="B87" s="31"/>
       <c r="C87" s="7"/>
@@ -7516,8 +7996,9 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="69"/>
-    </row>
-    <row r="88" spans="1:7" ht="15.75">
+      <c r="L87" s="79"/>
+    </row>
+    <row r="88" spans="1:12" ht="15.75">
       <c r="A88" s="29">
         <v>33</v>
       </c>
@@ -7537,8 +8018,21 @@
       <c r="G88" s="68">
         <v>1.2795355230044907</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75">
+      <c r="H88" s="90"/>
+      <c r="I88" s="87">
+        <v>1.9790289937071612</v>
+      </c>
+      <c r="J88" s="87">
+        <v>7.7608980145378884E-2</v>
+      </c>
+      <c r="K88" s="87">
+        <v>0.15521796029075777</v>
+      </c>
+      <c r="L88" s="87">
+        <v>2.2118559341432982</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75">
       <c r="A89" s="29">
         <v>34</v>
       </c>
@@ -7558,8 +8052,20 @@
       <c r="G89" s="68">
         <v>0.65210170986301008</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75">
+      <c r="H89" s="88">
+        <v>0.87768824752509855</v>
+      </c>
+      <c r="J89" s="88">
+        <v>0.10343735882142077</v>
+      </c>
+      <c r="K89" s="88">
+        <v>0.20687471764284154</v>
+      </c>
+      <c r="L89" s="89">
+        <v>1.1880003239893608</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75">
       <c r="A90" s="29"/>
       <c r="B90" s="31"/>
       <c r="C90" s="70"/>
@@ -7567,8 +8073,9 @@
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="69"/>
-    </row>
-    <row r="91" spans="1:7" ht="15.75">
+      <c r="L90" s="79"/>
+    </row>
+    <row r="91" spans="1:12" ht="15.75">
       <c r="A91" s="29"/>
       <c r="B91" s="31"/>
       <c r="C91" s="70"/>
@@ -7576,8 +8083,9 @@
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="69"/>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="L91" s="79"/>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="29"/>
       <c r="B92" s="31"/>
       <c r="C92" s="7"/>
@@ -7585,8 +8093,9 @@
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="69"/>
-    </row>
-    <row r="93" spans="1:7" ht="15.75">
+      <c r="L92" s="79"/>
+    </row>
+    <row r="93" spans="1:12" ht="15.75">
       <c r="A93" s="29">
         <v>35</v>
       </c>
@@ -7606,8 +8115,20 @@
       <c r="G93" s="68">
         <v>1.453334916970765</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.75">
+      <c r="H93" s="88">
+        <v>1.4959681341320683</v>
+      </c>
+      <c r="J93" s="88">
+        <v>0.17599625107436101</v>
+      </c>
+      <c r="K93" s="88">
+        <v>0.35199250214872202</v>
+      </c>
+      <c r="L93" s="89">
+        <v>2.0239568873551512</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15.75">
       <c r="A94" s="29"/>
       <c r="B94" s="31"/>
       <c r="C94" s="70"/>
@@ -7615,8 +8136,9 @@
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="69"/>
-    </row>
-    <row r="95" spans="1:7" ht="15.75">
+      <c r="L94" s="79"/>
+    </row>
+    <row r="95" spans="1:12" ht="15.75">
       <c r="A95" s="29"/>
       <c r="B95" s="31"/>
       <c r="C95" s="70"/>
@@ -7624,8 +8146,9 @@
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="69"/>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="L95" s="79"/>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="29"/>
       <c r="B96" s="31"/>
       <c r="C96" s="7"/>
@@ -7633,8 +8156,9 @@
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="69"/>
-    </row>
-    <row r="97" spans="1:7" ht="15.75">
+      <c r="L96" s="79"/>
+    </row>
+    <row r="97" spans="1:12" ht="15.75">
       <c r="A97" s="29"/>
       <c r="B97" s="31"/>
       <c r="C97" s="70"/>
@@ -7642,8 +8166,9 @@
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="69"/>
-    </row>
-    <row r="98" spans="1:7" ht="15.75">
+      <c r="L97" s="79"/>
+    </row>
+    <row r="98" spans="1:12" ht="15.75">
       <c r="A98" s="29"/>
       <c r="B98" s="31"/>
       <c r="C98" s="70"/>
@@ -7651,8 +8176,9 @@
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="69"/>
-    </row>
-    <row r="99" spans="1:7" ht="15.75">
+      <c r="L98" s="79"/>
+    </row>
+    <row r="99" spans="1:12" ht="15.75">
       <c r="A99" s="29"/>
       <c r="B99" s="31"/>
       <c r="C99" s="70"/>
@@ -7660,8 +8186,9 @@
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="69"/>
-    </row>
-    <row r="100" spans="1:7" ht="15.75">
+      <c r="L99" s="79"/>
+    </row>
+    <row r="100" spans="1:12" ht="15.75">
       <c r="A100" s="29"/>
       <c r="B100" s="31"/>
       <c r="C100" s="70"/>
@@ -7669,8 +8196,9 @@
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="69"/>
-    </row>
-    <row r="101" spans="1:7" ht="15.75">
+      <c r="L100" s="79"/>
+    </row>
+    <row r="101" spans="1:12" ht="15.75">
       <c r="A101" s="29">
         <v>36</v>
       </c>
@@ -7690,8 +8218,20 @@
       <c r="G101" s="68">
         <v>1.4742870971855147</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="15.75">
+      <c r="H101" s="88">
+        <v>2.3618211057067806</v>
+      </c>
+      <c r="J101" s="88">
+        <v>0.10343735882142077</v>
+      </c>
+      <c r="K101" s="88">
+        <v>0.20687471764284154</v>
+      </c>
+      <c r="L101" s="89">
+        <v>2.6721331821710428</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15.75">
       <c r="A102" s="29"/>
       <c r="B102" s="31"/>
       <c r="C102" s="70"/>
@@ -7699,8 +8239,9 @@
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="69"/>
-    </row>
-    <row r="103" spans="1:7" ht="15.75">
+      <c r="L102" s="79"/>
+    </row>
+    <row r="103" spans="1:12" ht="15.75">
       <c r="A103" s="29"/>
       <c r="B103" s="31"/>
       <c r="C103" s="70"/>
@@ -7708,8 +8249,9 @@
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="69"/>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="L103" s="79"/>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="29"/>
       <c r="B104" s="31"/>
       <c r="C104" s="7"/>
@@ -7717,8 +8259,9 @@
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="69"/>
-    </row>
-    <row r="105" spans="1:7" ht="15.75">
+      <c r="L104" s="79"/>
+    </row>
+    <row r="105" spans="1:12" ht="15.75">
       <c r="A105" s="29">
         <v>37</v>
       </c>
@@ -7738,8 +8281,20 @@
       <c r="G105" s="68">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="15.75">
+      <c r="I105" s="88">
+        <v>0</v>
+      </c>
+      <c r="J105" s="88">
+        <v>0</v>
+      </c>
+      <c r="K105" s="88">
+        <v>0</v>
+      </c>
+      <c r="L105" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15.75">
       <c r="A106" s="29">
         <v>38</v>
       </c>
@@ -7759,8 +8314,20 @@
       <c r="G106" s="68">
         <v>0.34092852464568707</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" s="88">
+        <v>0.45966808187169877</v>
+      </c>
+      <c r="J106" s="88">
+        <v>5.4078597867258694E-2</v>
+      </c>
+      <c r="K106" s="88">
+        <v>0.10815719573451739</v>
+      </c>
+      <c r="L106" s="89">
+        <v>0.62190387547347492</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="29"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -7769,7 +8336,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="1:7" ht="30">
+    <row r="108" spans="1:12" ht="30">
       <c r="B108" s="62" t="s">
         <v>104</v>
       </c>
@@ -7794,10 +8361,10 @@
         <v>34.98000000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:12">
       <c r="G109" s="55"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:12">
       <c r="B111" s="72" t="s">
         <v>107</v>
       </c>

--- a/Src/Data_files/test.xlsx
+++ b/Src/Data_files/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="125">
   <si>
     <t>№ квартири</t>
   </si>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:AP141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K108" sqref="K108"/>
       <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
     </sheetView>
@@ -6342,7 +6342,7 @@
   <dimension ref="A1:L184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6374,21 +6374,11 @@
       <c r="G1" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="85" t="s">
-        <v>96</v>
-      </c>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="29">
@@ -6411,18 +6401,10 @@
         <v>1.3453272431589767</v>
       </c>
       <c r="H2" s="90"/>
-      <c r="I2" s="87">
-        <v>2.0807875767169266</v>
-      </c>
-      <c r="J2" s="87">
-        <v>8.1599512812428512E-2</v>
-      </c>
-      <c r="K2" s="87">
-        <v>0.16319902562485702</v>
-      </c>
-      <c r="L2" s="87">
-        <v>2.3255861151542123</v>
-      </c>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="29">
@@ -6445,18 +6427,10 @@
         <v>1.1797136027700976</v>
       </c>
       <c r="H3" s="90"/>
-      <c r="I3" s="87">
-        <v>1.8246366608647586</v>
-      </c>
-      <c r="J3" s="87">
-        <v>7.1554378857441536E-2</v>
-      </c>
-      <c r="K3" s="87">
-        <v>0.14310875771488307</v>
-      </c>
-      <c r="L3" s="87">
-        <v>2.0392997974370832</v>
-      </c>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="29">
@@ -6479,18 +6453,10 @@
         <v>1.1543043867104341</v>
       </c>
       <c r="H4" s="90"/>
-      <c r="I4" s="87">
-        <v>1.7853367943230563</v>
-      </c>
-      <c r="J4" s="87">
-        <v>7.0013207620512025E-2</v>
-      </c>
-      <c r="K4" s="87">
-        <v>0.14002641524102405</v>
-      </c>
-      <c r="L4" s="87">
-        <v>1.9953764171845922</v>
-      </c>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="29">
@@ -6513,18 +6479,10 @@
         <v>1.5245529635798187</v>
       </c>
       <c r="H5" s="90"/>
-      <c r="I5" s="87">
-        <v>2.3579919925021495</v>
-      </c>
-      <c r="J5" s="87">
-        <v>9.2470274215770601E-2</v>
-      </c>
-      <c r="K5" s="87">
-        <v>0.1849405484315412</v>
-      </c>
-      <c r="L5" s="87">
-        <v>2.6354028151494613</v>
-      </c>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="29">
@@ -6547,18 +6505,10 @@
         <v>1.5433830076240336</v>
       </c>
       <c r="H6" s="90"/>
-      <c r="I6" s="87">
-        <v>2.3871160007428758</v>
-      </c>
-      <c r="J6" s="87">
-        <v>9.3612392185995139E-2</v>
-      </c>
-      <c r="K6" s="87">
-        <v>0.18722478437199028</v>
-      </c>
-      <c r="L6" s="87">
-        <v>2.6679531773008609</v>
-      </c>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
     </row>
     <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="29">
@@ -6581,18 +6531,10 @@
         <v>1.1797136027700976</v>
       </c>
       <c r="H7" s="90"/>
-      <c r="I7" s="87">
-        <v>1.8246366608647586</v>
-      </c>
-      <c r="J7" s="87">
-        <v>7.1554378857441536E-2</v>
-      </c>
-      <c r="K7" s="87">
-        <v>0.14310875771488307</v>
-      </c>
-      <c r="L7" s="87">
-        <v>2.0392997974370832</v>
-      </c>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
     </row>
     <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="29">
@@ -6614,18 +6556,10 @@
       <c r="G8" s="68">
         <v>0.66112731145866177</v>
       </c>
-      <c r="H8" s="88">
-        <v>0.91726826308110088</v>
-      </c>
-      <c r="J8" s="88">
-        <v>7.1416774282715687E-2</v>
-      </c>
-      <c r="K8" s="88">
-        <v>0.14283354856543137</v>
-      </c>
-      <c r="L8" s="89">
-        <v>1.1315185859292478</v>
-      </c>
+      <c r="H8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89"/>
     </row>
     <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="29"/>
@@ -6668,18 +6602,10 @@
         <v>1.7053667600043894</v>
       </c>
       <c r="H11" s="90"/>
-      <c r="I11" s="87">
-        <v>2.6376526499462289</v>
-      </c>
-      <c r="J11" s="87">
-        <v>0.10343735882142077</v>
-      </c>
-      <c r="K11" s="87">
-        <v>0.20687471764284154</v>
-      </c>
-      <c r="L11" s="87">
-        <v>2.9479647264104911</v>
-      </c>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
     </row>
     <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="29">
@@ -6701,18 +6627,10 @@
       <c r="G12" s="68">
         <v>0.59016202370600745</v>
       </c>
-      <c r="H12" s="88">
-        <v>1.3475056350067938</v>
-      </c>
-      <c r="J12" s="88">
-        <v>9.3612392185995139E-2</v>
-      </c>
-      <c r="K12" s="88">
-        <v>0.18722478437199028</v>
-      </c>
-      <c r="L12" s="89">
-        <v>1.6283428115647791</v>
-      </c>
+      <c r="H12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
     </row>
     <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="29"/>
@@ -6764,18 +6682,10 @@
       <c r="G16" s="68">
         <v>0.52150460801542819</v>
       </c>
-      <c r="H16" s="88">
-        <v>0.73729140267923488</v>
-      </c>
-      <c r="J16" s="88">
-        <v>7.1554378857441536E-2</v>
-      </c>
-      <c r="K16" s="88">
-        <v>0.14310875771488307</v>
-      </c>
-      <c r="L16" s="89">
-        <v>0.95195453925155948</v>
-      </c>
+      <c r="H16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
     </row>
     <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="29"/>
@@ -6827,18 +6737,10 @@
       <c r="G20" s="68">
         <v>0.45023385315804476</v>
       </c>
-      <c r="H20" s="88">
-        <v>0.60598669743983791</v>
-      </c>
-      <c r="J20" s="88">
-        <v>7.1416774282715687E-2</v>
-      </c>
-      <c r="K20" s="88">
-        <v>0.14283354856543137</v>
-      </c>
-      <c r="L20" s="89">
-        <v>0.82023702028798495</v>
-      </c>
+      <c r="H20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="89"/>
     </row>
     <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="29"/>
@@ -6891,18 +6793,10 @@
         <v>1.6742858439314077</v>
       </c>
       <c r="H24" s="90"/>
-      <c r="I24" s="87">
-        <v>2.5895804917657537</v>
-      </c>
-      <c r="J24" s="87">
-        <v>0.10155217614767663</v>
-      </c>
-      <c r="K24" s="87">
-        <v>0.20310435229535326</v>
-      </c>
-      <c r="L24" s="87">
-        <v>2.8942370202087835</v>
-      </c>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
     </row>
     <row r="25" spans="1:12" ht="15.75">
       <c r="A25" s="29">
@@ -6925,18 +6819,10 @@
         <v>1.5767326037023421</v>
       </c>
       <c r="H25" s="90"/>
-      <c r="I25" s="87">
-        <v>2.43869707557886</v>
-      </c>
-      <c r="J25" s="87">
-        <v>9.5635179434465117E-2</v>
-      </c>
-      <c r="K25" s="87">
-        <v>0.19127035886893023</v>
-      </c>
-      <c r="L25" s="87">
-        <v>2.7256026138822556</v>
-      </c>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
       <c r="A26" s="29">
@@ -6958,18 +6844,10 @@
       <c r="G26" s="68">
         <v>0.44138532656418727</v>
       </c>
-      <c r="H26" s="88">
-        <v>0.59511226477435208</v>
-      </c>
-      <c r="J26" s="88">
-        <v>7.0013207620512025E-2</v>
-      </c>
-      <c r="K26" s="88">
-        <v>0.14002641524102405</v>
-      </c>
-      <c r="L26" s="89">
-        <v>0.80515188763588807</v>
-      </c>
+      <c r="H26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="89"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
       <c r="A27" s="29"/>
@@ -7011,18 +6889,10 @@
       <c r="G29" s="68">
         <v>0.44138532656418727</v>
       </c>
-      <c r="H29" s="88">
-        <v>0.59407713228784109</v>
-      </c>
-      <c r="J29" s="88">
-        <v>7.0013207620512025E-2</v>
-      </c>
-      <c r="K29" s="88">
-        <v>0.14002641524102405</v>
-      </c>
-      <c r="L29" s="89">
-        <v>0.80411675514937708</v>
-      </c>
+      <c r="H29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="89"/>
     </row>
     <row r="30" spans="1:12" ht="15.75">
       <c r="A30" s="29"/>
@@ -7074,18 +6944,10 @@
       <c r="G33" s="68">
         <v>0.64021692414380915</v>
       </c>
-      <c r="H33" s="88">
-        <v>0.95192369262133358</v>
-      </c>
-      <c r="J33" s="88">
-        <v>0.10155217614767663</v>
-      </c>
-      <c r="K33" s="88">
-        <v>0.20310435229535326</v>
-      </c>
-      <c r="L33" s="89">
-        <v>1.2565802210643635</v>
-      </c>
+      <c r="H33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="89"/>
     </row>
     <row r="34" spans="1:12" ht="15.75">
       <c r="A34" s="29"/>
@@ -7137,18 +6999,10 @@
       <c r="G37" s="68">
         <v>0.65544762202620865</v>
       </c>
-      <c r="H37" s="88">
-        <v>1.2086453829647645</v>
-      </c>
-      <c r="J37" s="88">
-        <v>9.3612392185995139E-2</v>
-      </c>
-      <c r="K37" s="88">
-        <v>0.18722478437199028</v>
-      </c>
-      <c r="L37" s="89">
-        <v>1.4894825595227499</v>
-      </c>
+      <c r="H37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="89"/>
     </row>
     <row r="38" spans="1:12" ht="15.75">
       <c r="A38" s="29"/>
@@ -7200,18 +7054,10 @@
       <c r="G41" s="68">
         <v>0.70820481746373931</v>
       </c>
-      <c r="H41" s="88">
-        <v>0.90609021520360067</v>
-      </c>
-      <c r="J41" s="88">
-        <v>7.0013207620512025E-2</v>
-      </c>
-      <c r="K41" s="88">
-        <v>0.14002641524102405</v>
-      </c>
-      <c r="L41" s="89">
-        <v>1.1161298380651368</v>
-      </c>
+      <c r="H41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="89"/>
     </row>
     <row r="42" spans="1:12" ht="15.75">
       <c r="A42" s="29"/>
@@ -7264,18 +7110,10 @@
         <v>1.1774449227647705</v>
       </c>
       <c r="H45" s="87"/>
-      <c r="I45" s="87">
-        <v>1.8211277442092495</v>
-      </c>
-      <c r="J45" s="87">
-        <v>7.1416774282715687E-2</v>
-      </c>
-      <c r="K45" s="87">
-        <v>0.14283354856543137</v>
-      </c>
-      <c r="L45" s="87">
-        <v>2.0353780670573967</v>
-      </c>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
     </row>
     <row r="46" spans="1:12" ht="15.75">
       <c r="A46" s="29">
@@ -7297,18 +7135,10 @@
       <c r="G46" s="68">
         <v>1.1648389160719919</v>
       </c>
-      <c r="H46" s="88">
-        <v>1.7500656382491941</v>
-      </c>
-      <c r="J46" s="88">
-        <v>9.1933616374339791E-2</v>
-      </c>
-      <c r="K46" s="88">
-        <v>0.18386723274867958</v>
-      </c>
-      <c r="L46" s="89">
-        <v>2.0258664873722134</v>
-      </c>
+      <c r="H46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="89"/>
     </row>
     <row r="47" spans="1:12" ht="15.75">
       <c r="A47" s="29"/>
@@ -7360,18 +7190,10 @@
       <c r="G50" s="68">
         <v>0.60291431203244916</v>
       </c>
-      <c r="H50" s="88">
-        <v>0.8114850765331163</v>
-      </c>
-      <c r="J50" s="88">
-        <v>9.5635179434465117E-2</v>
-      </c>
-      <c r="K50" s="88">
-        <v>0.19127035886893023</v>
-      </c>
-      <c r="L50" s="89">
-        <v>1.0983906148365117</v>
-      </c>
+      <c r="H50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="89"/>
     </row>
     <row r="51" spans="1:12" ht="15.75">
       <c r="A51" s="29"/>
@@ -7423,18 +7245,10 @@
       <c r="G54" s="68">
         <v>0.48562795953347482</v>
       </c>
-      <c r="H54" s="88">
-        <v>0.65362495804782506</v>
-      </c>
-      <c r="J54" s="88">
-        <v>7.703104093153032E-2</v>
-      </c>
-      <c r="K54" s="88">
-        <v>0.15406208186306064</v>
-      </c>
-      <c r="L54" s="89">
-        <v>0.88471808084241599</v>
-      </c>
+      <c r="H54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="89"/>
     </row>
     <row r="55" spans="1:12" ht="15.75">
       <c r="A55" s="29"/>
@@ -7476,18 +7290,10 @@
       <c r="G57" s="68">
         <v>0.55407515053544887</v>
       </c>
-      <c r="H57" s="88">
-        <v>0.60598669743983791</v>
-      </c>
-      <c r="J57" s="88">
-        <v>7.1416774282715687E-2</v>
-      </c>
-      <c r="K57" s="88">
-        <v>0.14283354856543137</v>
-      </c>
-      <c r="L57" s="89">
-        <v>0.82023702028798495</v>
-      </c>
+      <c r="H57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="89"/>
     </row>
     <row r="58" spans="1:12" ht="15.75">
       <c r="A58" s="29"/>
@@ -7529,18 +7335,10 @@
       <c r="G60" s="68">
         <v>0.60569032037562009</v>
       </c>
-      <c r="H60" s="88">
-        <v>0.81664186962549634</v>
-      </c>
-      <c r="J60" s="88">
-        <v>9.6075514073587831E-2</v>
-      </c>
-      <c r="K60" s="88">
-        <v>0.19215102814717566</v>
-      </c>
-      <c r="L60" s="89">
-        <v>1.1048684118462599</v>
-      </c>
+      <c r="H60" s="88"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
+      <c r="L60" s="89"/>
     </row>
     <row r="61" spans="1:12" ht="15.75">
       <c r="A61" s="29"/>
@@ -7592,18 +7390,10 @@
       <c r="G64" s="68">
         <v>0.85660055746999486</v>
       </c>
-      <c r="H64" s="88">
-        <v>2.6354847843821405</v>
-      </c>
-      <c r="J64" s="88">
-        <v>9.3612392185995139E-2</v>
-      </c>
-      <c r="K64" s="88">
-        <v>0.18722478437199028</v>
-      </c>
-      <c r="L64" s="89">
-        <v>2.9163219609401256</v>
-      </c>
+      <c r="H64" s="88"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="89"/>
     </row>
     <row r="65" spans="1:12" ht="15.75">
       <c r="A65" s="29"/>
@@ -7666,18 +7456,10 @@
         <v>1.1865196427860789</v>
       </c>
       <c r="H69" s="90"/>
-      <c r="I69" s="87">
-        <v>1.835163410831286</v>
-      </c>
-      <c r="J69" s="87">
-        <v>7.1967192581619072E-2</v>
-      </c>
-      <c r="K69" s="87">
-        <v>0.14393438516323814</v>
-      </c>
-      <c r="L69" s="87">
-        <v>2.0510649885761429</v>
-      </c>
+      <c r="I69" s="87"/>
+      <c r="J69" s="87"/>
+      <c r="K69" s="87"/>
+      <c r="L69" s="87"/>
     </row>
     <row r="70" spans="1:12" ht="15.75">
       <c r="A70" s="29">
@@ -7699,18 +7481,10 @@
       <c r="G70" s="68">
         <v>0.45163160671129843</v>
       </c>
-      <c r="H70" s="88">
-        <v>0.60598669743983791</v>
-      </c>
-      <c r="J70" s="88">
-        <v>7.1416774282715687E-2</v>
-      </c>
-      <c r="K70" s="88">
-        <v>0.14283354856543137</v>
-      </c>
-      <c r="L70" s="89">
-        <v>0.82023702028798495</v>
-      </c>
+      <c r="H70" s="88"/>
+      <c r="J70" s="88"/>
+      <c r="K70" s="88"/>
+      <c r="L70" s="89"/>
     </row>
     <row r="71" spans="1:12" ht="15.75">
       <c r="A71" s="29"/>
@@ -7752,18 +7526,10 @@
       <c r="G73" s="68">
         <v>0.92227142136812579</v>
       </c>
-      <c r="H73" s="88">
-        <v>1.7131938893681744</v>
-      </c>
-      <c r="J73" s="88">
-        <v>9.1919855916867188E-2</v>
-      </c>
-      <c r="K73" s="88">
-        <v>0.18383971183373438</v>
-      </c>
-      <c r="L73" s="89">
-        <v>1.9889534571187761</v>
-      </c>
+      <c r="H73" s="88"/>
+      <c r="J73" s="88"/>
+      <c r="K73" s="88"/>
+      <c r="L73" s="89"/>
     </row>
     <row r="74" spans="1:12" ht="15.75">
       <c r="A74" s="29"/>
@@ -7815,18 +7581,10 @@
       <c r="G77" s="68">
         <v>0.61504658083297015</v>
       </c>
-      <c r="H77" s="88">
-        <v>1.6290212101734896</v>
-      </c>
-      <c r="J77" s="88">
-        <v>9.7424038905901164E-2</v>
-      </c>
-      <c r="K77" s="88">
-        <v>0.19484807781180233</v>
-      </c>
-      <c r="L77" s="89">
-        <v>1.9212933268911929</v>
-      </c>
+      <c r="H77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="89"/>
     </row>
     <row r="78" spans="1:12" ht="15.75">
       <c r="A78" s="29"/>
@@ -7878,18 +7636,10 @@
       <c r="G81" s="68">
         <v>0.94823207270074628</v>
       </c>
-      <c r="H81" s="88">
-        <v>1.0737323151539471</v>
-      </c>
-      <c r="J81" s="88">
-        <v>7.1829588006893236E-2</v>
-      </c>
-      <c r="K81" s="88">
-        <v>0.14365917601378647</v>
-      </c>
-      <c r="L81" s="89">
-        <v>1.2892210791746268</v>
-      </c>
+      <c r="H81" s="88"/>
+      <c r="J81" s="88"/>
+      <c r="K81" s="88"/>
+      <c r="L81" s="89"/>
     </row>
     <row r="82" spans="1:12" ht="15.75">
       <c r="A82" s="29"/>
@@ -7932,18 +7682,10 @@
         <v>1.7053667600043894</v>
       </c>
       <c r="H84" s="90"/>
-      <c r="I84" s="87">
-        <v>2.6376526499462289</v>
-      </c>
-      <c r="J84" s="87">
-        <v>0.10343735882142077</v>
-      </c>
-      <c r="K84" s="87">
-        <v>0.20687471764284154</v>
-      </c>
-      <c r="L84" s="87">
-        <v>2.9479647264104911</v>
-      </c>
+      <c r="I84" s="87"/>
+      <c r="J84" s="87"/>
+      <c r="K84" s="87"/>
+      <c r="L84" s="87"/>
     </row>
     <row r="85" spans="1:12" ht="15.75">
       <c r="A85" s="29">
@@ -7965,18 +7707,10 @@
       <c r="G85" s="68">
         <v>0.51050417779133062</v>
       </c>
-      <c r="H85" s="88">
-        <v>0.60832190629317073</v>
-      </c>
-      <c r="J85" s="88">
-        <v>7.1691983432167386E-2</v>
-      </c>
-      <c r="K85" s="88">
-        <v>0.14338396686433477</v>
-      </c>
-      <c r="L85" s="89">
-        <v>0.82339785658967291</v>
-      </c>
+      <c r="H85" s="88"/>
+      <c r="J85" s="88"/>
+      <c r="K85" s="88"/>
+      <c r="L85" s="89"/>
     </row>
     <row r="86" spans="1:12" ht="15.75">
       <c r="A86" s="29"/>
@@ -8019,18 +7753,10 @@
         <v>1.2795355230044907</v>
       </c>
       <c r="H88" s="90"/>
-      <c r="I88" s="87">
-        <v>1.9790289937071612</v>
-      </c>
-      <c r="J88" s="87">
-        <v>7.7608980145378884E-2</v>
-      </c>
-      <c r="K88" s="87">
-        <v>0.15521796029075777</v>
-      </c>
-      <c r="L88" s="87">
-        <v>2.2118559341432982</v>
-      </c>
+      <c r="I88" s="87"/>
+      <c r="J88" s="87"/>
+      <c r="K88" s="87"/>
+      <c r="L88" s="87"/>
     </row>
     <row r="89" spans="1:12" ht="15.75">
       <c r="A89" s="29">
@@ -8052,18 +7778,10 @@
       <c r="G89" s="68">
         <v>0.65210170986301008</v>
       </c>
-      <c r="H89" s="88">
-        <v>0.87768824752509855</v>
-      </c>
-      <c r="J89" s="88">
-        <v>0.10343735882142077</v>
-      </c>
-      <c r="K89" s="88">
-        <v>0.20687471764284154</v>
-      </c>
-      <c r="L89" s="89">
-        <v>1.1880003239893608</v>
-      </c>
+      <c r="H89" s="88"/>
+      <c r="J89" s="88"/>
+      <c r="K89" s="88"/>
+      <c r="L89" s="89"/>
     </row>
     <row r="90" spans="1:12" ht="15.75">
       <c r="A90" s="29"/>
@@ -8115,18 +7833,10 @@
       <c r="G93" s="68">
         <v>1.453334916970765</v>
       </c>
-      <c r="H93" s="88">
-        <v>1.4959681341320683</v>
-      </c>
-      <c r="J93" s="88">
-        <v>0.17599625107436101</v>
-      </c>
-      <c r="K93" s="88">
-        <v>0.35199250214872202</v>
-      </c>
-      <c r="L93" s="89">
-        <v>2.0239568873551512</v>
-      </c>
+      <c r="H93" s="88"/>
+      <c r="J93" s="88"/>
+      <c r="K93" s="88"/>
+      <c r="L93" s="89"/>
     </row>
     <row r="94" spans="1:12" ht="15.75">
       <c r="A94" s="29"/>
@@ -8218,18 +7928,10 @@
       <c r="G101" s="68">
         <v>1.4742870971855147</v>
       </c>
-      <c r="H101" s="88">
-        <v>2.3618211057067806</v>
-      </c>
-      <c r="J101" s="88">
-        <v>0.10343735882142077</v>
-      </c>
-      <c r="K101" s="88">
-        <v>0.20687471764284154</v>
-      </c>
-      <c r="L101" s="89">
-        <v>2.6721331821710428</v>
-      </c>
+      <c r="H101" s="88"/>
+      <c r="J101" s="88"/>
+      <c r="K101" s="88"/>
+      <c r="L101" s="89"/>
     </row>
     <row r="102" spans="1:12" ht="15.75">
       <c r="A102" s="29"/>
@@ -8281,18 +7983,10 @@
       <c r="G105" s="68">
         <v>0</v>
       </c>
-      <c r="I105" s="88">
-        <v>0</v>
-      </c>
-      <c r="J105" s="88">
-        <v>0</v>
-      </c>
-      <c r="K105" s="88">
-        <v>0</v>
-      </c>
-      <c r="L105" s="89">
-        <v>0</v>
-      </c>
+      <c r="I105" s="88"/>
+      <c r="J105" s="88"/>
+      <c r="K105" s="88"/>
+      <c r="L105" s="89"/>
     </row>
     <row r="106" spans="1:12" ht="15.75">
       <c r="A106" s="29">
@@ -8314,18 +8008,10 @@
       <c r="G106" s="68">
         <v>0.34092852464568707</v>
       </c>
-      <c r="H106" s="88">
-        <v>0.45966808187169877</v>
-      </c>
-      <c r="J106" s="88">
-        <v>5.4078597867258694E-2</v>
-      </c>
-      <c r="K106" s="88">
-        <v>0.10815719573451739</v>
-      </c>
-      <c r="L106" s="89">
-        <v>0.62190387547347492</v>
-      </c>
+      <c r="H106" s="88"/>
+      <c r="J106" s="88"/>
+      <c r="K106" s="88"/>
+      <c r="L106" s="89"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="29"/>

--- a/Src/Data_files/test.xlsx
+++ b/Src/Data_files/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="квартири, площі" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="126">
   <si>
     <t>№ квартири</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>120х30х11</t>
+  </si>
+  <si>
+    <t>10а</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1286,10 @@
   </sheetPr>
   <dimension ref="A1:AP141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K108" sqref="K108"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1894,8 +1897,8 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="13">
-        <v>10</v>
+      <c r="A16" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>12</v>
@@ -6341,7 +6344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>

--- a/Src/Data_files/test.xlsx
+++ b/Src/Data_files/test.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="квартири, площі" sheetId="2" r:id="rId1"/>
-    <sheet name="report" sheetId="4" r:id="rId2"/>
+    <sheet name="rules" sheetId="5" r:id="rId2"/>
+    <sheet name="report" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="136">
   <si>
     <t>№ квартири</t>
   </si>
@@ -393,6 +394,36 @@
   </si>
   <si>
     <t>10а</t>
+  </si>
+  <si>
+    <t>rule</t>
+  </si>
+  <si>
+    <t>rule name</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>param lengs</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>"10b" "кв.10"</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>post_divider</t>
   </si>
 </sst>
 </file>
@@ -404,7 +435,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +497,12 @@
     <font>
       <sz val="11"/>
       <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1286,10 +1323,10 @@
   </sheetPr>
   <dimension ref="A1:AP141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K108" sqref="K108"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6342,9 +6379,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>7</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>

--- a/Src/Data_files/test.xlsx
+++ b/Src/Data_files/test.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="квартири, площі" sheetId="2" r:id="rId1"/>
     <sheet name="rules" sheetId="5" r:id="rId2"/>
-    <sheet name="report" sheetId="4" r:id="rId3"/>
+    <sheet name="Теплоенрго" sheetId="6" r:id="rId3"/>
+    <sheet name="report" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="145">
   <si>
     <t>№ квартири</t>
   </si>
@@ -424,6 +425,33 @@
   </si>
   <si>
     <t>post_divider</t>
+  </si>
+  <si>
+    <t>"2b" "кв.2b"</t>
+  </si>
+  <si>
+    <t>Особовий рахунок</t>
+  </si>
+  <si>
+    <t>Адреса</t>
+  </si>
+  <si>
+    <t>№ віртуального ліч-ка</t>
+  </si>
+  <si>
+    <t>Період</t>
+  </si>
+  <si>
+    <t>Обсяг споживання,  Гкал</t>
+  </si>
+  <si>
+    <t>Всього</t>
+  </si>
+  <si>
+    <t>colmn</t>
+  </si>
+  <si>
+    <t>source ID</t>
   </si>
 </sst>
 </file>
@@ -435,7 +463,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +534,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -837,10 +871,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1046,9 +1081,11 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Лист2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6379,15 +6416,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>127</v>
       </c>
@@ -6395,16 +6432,19 @@
         <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
         <v>132</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -6412,19 +6452,22 @@
         <v>135</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>127</v>
       </c>
@@ -6441,7 +6484,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -6449,10 +6492,10 @@
         <v>134</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="13">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>133</v>
@@ -6461,7 +6504,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>127</v>
       </c>
@@ -6478,7 +6521,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -6488,8 +6531,8 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="13">
-        <v>7</v>
+      <c r="D8" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>133</v>
@@ -6508,10 +6551,632 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="91">
+        <v>1</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="91">
+        <v>1</v>
+      </c>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="91">
+        <v>2</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="91">
+        <v>2</v>
+      </c>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="91">
+        <v>3</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="91">
+        <v>3</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="91">
+        <v>4</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="91">
+        <v>4</v>
+      </c>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="91">
+        <v>5</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="91">
+        <v>5</v>
+      </c>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="91">
+        <v>6</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="91">
+        <v>6</v>
+      </c>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="91">
+        <v>7</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="91">
+        <v>7</v>
+      </c>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="91">
+        <v>8</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="91">
+        <v>8</v>
+      </c>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="91">
+        <v>9</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="91">
+        <v>9</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="91">
+        <v>11</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="91">
+        <v>11</v>
+      </c>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="91">
+        <v>12</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="91">
+        <v>12</v>
+      </c>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="91">
+        <v>13</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="91">
+        <v>13</v>
+      </c>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="91">
+        <v>14</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="91">
+        <v>14</v>
+      </c>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="91">
+        <v>15</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91">
+        <v>15</v>
+      </c>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="91">
+        <v>16</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="91">
+        <v>16</v>
+      </c>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="91">
+        <v>17</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="91">
+        <v>17</v>
+      </c>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="91">
+        <v>18</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="91">
+        <v>18</v>
+      </c>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="91">
+        <v>19</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="91">
+        <v>19</v>
+      </c>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="91">
+        <v>20</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="91">
+        <v>20</v>
+      </c>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="91">
+        <v>21</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="91">
+        <v>21</v>
+      </c>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="91">
+        <v>22</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="91">
+        <v>22</v>
+      </c>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="91">
+        <v>23</v>
+      </c>
+      <c r="B24" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="91">
+        <v>23</v>
+      </c>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="91">
+        <v>24</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="91">
+        <v>24</v>
+      </c>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="91">
+        <v>25</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="91">
+        <v>25</v>
+      </c>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="91">
+        <v>26</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="91">
+        <v>26</v>
+      </c>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="91">
+        <v>27</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="91">
+        <v>27</v>
+      </c>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="91">
+        <v>28</v>
+      </c>
+      <c r="B29" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="91">
+        <v>28</v>
+      </c>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="91">
+        <v>29</v>
+      </c>
+      <c r="B30" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="91">
+        <v>29</v>
+      </c>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="91">
+        <v>30</v>
+      </c>
+      <c r="B31" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="91">
+        <v>30</v>
+      </c>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="91">
+        <v>31</v>
+      </c>
+      <c r="B32" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="91">
+        <v>31</v>
+      </c>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="91">
+        <v>32</v>
+      </c>
+      <c r="B33" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="91">
+        <v>32</v>
+      </c>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="91">
+        <v>33</v>
+      </c>
+      <c r="B34" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="91">
+        <v>33</v>
+      </c>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="91">
+        <v>34</v>
+      </c>
+      <c r="B35" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="91">
+        <v>34</v>
+      </c>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="91">
+        <v>35</v>
+      </c>
+      <c r="B36" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="91">
+        <v>35</v>
+      </c>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="91">
+        <v>36</v>
+      </c>
+      <c r="B37" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="91">
+        <v>36</v>
+      </c>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="91">
+        <v>37</v>
+      </c>
+      <c r="B38" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="91">
+        <v>37</v>
+      </c>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="91">
+        <v>38</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="91">
+        <v>38</v>
+      </c>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="91"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="91">
+        <v>63.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Src/Data_files/test.xlsx
+++ b/Src/Data_files/test.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="квартири, площі" sheetId="2" r:id="rId1"/>
-    <sheet name="report" sheetId="4" r:id="rId2"/>
+    <sheet name="rules" sheetId="5" r:id="rId2"/>
+    <sheet name="Теплоенрго" sheetId="6" r:id="rId3"/>
+    <sheet name="report" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="146">
   <si>
     <t>№ квартири</t>
   </si>
@@ -393,6 +395,66 @@
   </si>
   <si>
     <t>10а</t>
+  </si>
+  <si>
+    <t>rule</t>
+  </si>
+  <si>
+    <t>rule name</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>param lengs</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>"10b" "кв.10"</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>post_divider</t>
+  </si>
+  <si>
+    <t>"2b" "кв.2b"</t>
+  </si>
+  <si>
+    <t>Особовий рахунок</t>
+  </si>
+  <si>
+    <t>Адреса</t>
+  </si>
+  <si>
+    <t>№ віртуального ліч-ка</t>
+  </si>
+  <si>
+    <t>Період</t>
+  </si>
+  <si>
+    <t>Обсяг споживання,  Гкал</t>
+  </si>
+  <si>
+    <t>Всього</t>
+  </si>
+  <si>
+    <t>colmn</t>
+  </si>
+  <si>
+    <t>source ID</t>
+  </si>
+  <si>
+    <t>"3300145735" "3300145734 вулиця Скрипника, 7 кв.2b"</t>
   </si>
 </sst>
 </file>
@@ -404,7 +466,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +531,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -800,10 +874,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1009,9 +1084,11 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Лист2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1286,15 +1363,15 @@
   </sheetPr>
   <dimension ref="A1:AP141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K108" sqref="K108"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="13" bestFit="1" customWidth="1"/>
@@ -4413,7 +4490,7 @@
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="13">
-        <v>28</v>
+        <v>3300145734</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>30</v>
@@ -6342,10 +6419,797 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>3300145734</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="91">
+        <v>1</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="91">
+        <v>1</v>
+      </c>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="91">
+        <v>2</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="91">
+        <v>2</v>
+      </c>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="91">
+        <v>3</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="91">
+        <v>3</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="91">
+        <v>4</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="91">
+        <v>4</v>
+      </c>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="91">
+        <v>5</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="91">
+        <v>5</v>
+      </c>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="91">
+        <v>6</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="91">
+        <v>6</v>
+      </c>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="91">
+        <v>7</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="91">
+        <v>7</v>
+      </c>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="91">
+        <v>8</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="91">
+        <v>8</v>
+      </c>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="91">
+        <v>9</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="91">
+        <v>9</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="91">
+        <v>11</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="91">
+        <v>11</v>
+      </c>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="91">
+        <v>12</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="91">
+        <v>12</v>
+      </c>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="91">
+        <v>13</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="91">
+        <v>13</v>
+      </c>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="91">
+        <v>14</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="91">
+        <v>14</v>
+      </c>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="91">
+        <v>15</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="91">
+        <v>15</v>
+      </c>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="91">
+        <v>16</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="91">
+        <v>16</v>
+      </c>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="91">
+        <v>17</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="91">
+        <v>17</v>
+      </c>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="91">
+        <v>18</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="91">
+        <v>18</v>
+      </c>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="91">
+        <v>19</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="91">
+        <v>19</v>
+      </c>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="91">
+        <v>20</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="91">
+        <v>20</v>
+      </c>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="91">
+        <v>21</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="91">
+        <v>21</v>
+      </c>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="91">
+        <v>22</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="91">
+        <v>22</v>
+      </c>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="91">
+        <v>23</v>
+      </c>
+      <c r="B24" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="91">
+        <v>23</v>
+      </c>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="91">
+        <v>24</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="91">
+        <v>24</v>
+      </c>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="91">
+        <v>25</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="91">
+        <v>25</v>
+      </c>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="91">
+        <v>26</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="91">
+        <v>26</v>
+      </c>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="91">
+        <v>27</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="91">
+        <v>27</v>
+      </c>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="13">
+        <v>3300145734</v>
+      </c>
+      <c r="B29" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="91">
+        <v>28</v>
+      </c>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="91">
+        <v>29</v>
+      </c>
+      <c r="B30" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="91">
+        <v>29</v>
+      </c>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="91">
+        <v>30</v>
+      </c>
+      <c r="B31" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="91">
+        <v>30</v>
+      </c>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="91">
+        <v>31</v>
+      </c>
+      <c r="B32" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="91">
+        <v>31</v>
+      </c>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="91">
+        <v>32</v>
+      </c>
+      <c r="B33" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="91">
+        <v>32</v>
+      </c>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="91">
+        <v>33</v>
+      </c>
+      <c r="B34" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="91">
+        <v>33</v>
+      </c>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="91">
+        <v>34</v>
+      </c>
+      <c r="B35" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="91">
+        <v>34</v>
+      </c>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="91">
+        <v>35</v>
+      </c>
+      <c r="B36" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="91">
+        <v>35</v>
+      </c>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="91">
+        <v>36</v>
+      </c>
+      <c r="B37" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="91">
+        <v>36</v>
+      </c>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="91">
+        <v>37</v>
+      </c>
+      <c r="B38" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="91">
+        <v>37</v>
+      </c>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="91">
+        <v>38</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="91">
+        <v>38</v>
+      </c>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="91"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="91">
+        <v>63.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Src/Data_files/test.xlsx
+++ b/Src/Data_files/test.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="квартири, площі" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="rules" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Налаштування" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Теплоенрго" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="report" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
@@ -803,375 +803,375 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1376,78 +1376,78 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="3.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="3.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="8"/>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       <c r="D97" s="31"/>
       <c r="E97" s="32"/>
       <c r="F97" s="32"/>
-      <c r="G97" s="0" t="n">
+      <c r="G97" s="2" t="n">
         <v>25482304</v>
       </c>
       <c r="H97" s="33" t="s">
@@ -5631,7 +5631,7 @@
       <c r="D98" s="31"/>
       <c r="E98" s="32"/>
       <c r="F98" s="32"/>
-      <c r="G98" s="0" t="n">
+      <c r="G98" s="2" t="n">
         <v>25482307</v>
       </c>
       <c r="H98" s="33" t="s">
@@ -5686,7 +5686,7 @@
       <c r="D99" s="31"/>
       <c r="E99" s="32"/>
       <c r="F99" s="32"/>
-      <c r="G99" s="0" t="n">
+      <c r="G99" s="2" t="n">
         <v>25482308</v>
       </c>
       <c r="H99" s="33" t="s">
@@ -5741,7 +5741,7 @@
       <c r="D100" s="31"/>
       <c r="E100" s="32"/>
       <c r="F100" s="32"/>
-      <c r="G100" s="0" t="n">
+      <c r="G100" s="2" t="n">
         <v>25482306</v>
       </c>
       <c r="H100" s="37" t="s">
@@ -6168,10 +6168,10 @@
       <c r="P136" s="27" t="n">
         <v>1.91808</v>
       </c>
-      <c r="R136" s="0" t="n">
+      <c r="R136" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="S136" s="0" t="n">
+      <c r="S136" s="2" t="n">
         <v>146</v>
       </c>
     </row>
@@ -6224,10 +6224,10 @@
       <c r="P137" s="27" t="n">
         <v>1.91808</v>
       </c>
-      <c r="R137" s="0" t="n">
+      <c r="R137" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="S137" s="0" t="n">
+      <c r="S137" s="2" t="n">
         <v>146</v>
       </c>
     </row>
@@ -6280,10 +6280,10 @@
       <c r="P138" s="27" t="n">
         <v>1.91808</v>
       </c>
-      <c r="R138" s="0" t="n">
+      <c r="R138" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="S138" s="0" t="n">
+      <c r="S138" s="2" t="n">
         <v>146</v>
       </c>
     </row>
@@ -6324,10 +6324,10 @@
       <c r="P139" s="27" t="n">
         <v>1.70496</v>
       </c>
-      <c r="R139" s="0" t="n">
+      <c r="R139" s="2" t="n">
         <v>344</v>
       </c>
-      <c r="S139" s="0" t="n">
+      <c r="S139" s="2" t="n">
         <v>235</v>
       </c>
     </row>
@@ -6365,10 +6365,10 @@
       <c r="P140" s="27" t="n">
         <v>2.34432</v>
       </c>
-      <c r="R140" s="0" t="n">
+      <c r="R140" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="S140" s="0" t="n">
+      <c r="S140" s="2" t="n">
         <v>120</v>
       </c>
     </row>
@@ -6406,10 +6406,10 @@
       <c r="P141" s="27" t="n">
         <v>1.70496</v>
       </c>
-      <c r="R141" s="0" t="n">
+      <c r="R141" s="2" t="n">
         <v>344</v>
       </c>
-      <c r="S141" s="0" t="n">
+      <c r="S141" s="2" t="n">
         <v>235</v>
       </c>
     </row>
@@ -6432,48 +6432,48 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="2" t="n">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="2" t="n">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -6484,30 +6484,30 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -6521,30 +6521,30 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -6558,25 +6558,25 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="2" t="n">
         <v>3300145734</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6604,8 +6604,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="9.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7238,8 +7238,8 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="11.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="2" width="11.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="136.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
